--- a/REGULAR/PERENA, RUBILINDA.xlsx
+++ b/REGULAR/PERENA, RUBILINDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E9772-5F83-4735-80C9-6985966218F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="331">
   <si>
     <t>PERIOD</t>
   </si>
@@ -469,9 +468,6 @@
     <t>UT(0-0-7)</t>
   </si>
   <si>
-    <t>PERENA, RUBILINDA</t>
-  </si>
-  <si>
     <t>PERMANENT</t>
   </si>
   <si>
@@ -1028,12 +1024,15 @@
   </si>
   <si>
     <t>2/22 -24/2023</t>
+  </si>
+  <si>
+    <t>PEREÑA, RUBILINDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1910,7 +1909,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1952,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2016,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2077,7 +2076,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2142,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2205,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2303,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2362,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2428,7 +2427,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2470,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2545,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2731,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2797,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2855,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2921,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +2977,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3052,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3095,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3161,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3218,7 +3217,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,7 +3315,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3379,7 +3378,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,25 +3444,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K594" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K595" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="17">
+    <tableColumn id="1" name="PERIOD" dataDxfId="21"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="20"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="19"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="18"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="15">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="16"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="15">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="13">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="13">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="11"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3475,13 +3474,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS" dataDxfId="6"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3490,14 +3489,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3801,7 +3800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3811,7 +3810,7 @@
       <selection activeCell="G3" activeCellId="1" sqref="G3 G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3819,39 +3818,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K594"/>
+  <dimension ref="A2:K595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="3660" topLeftCell="A472" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A485" sqref="A485:A594"/>
+      <selection pane="bottomLeft" activeCell="B486" sqref="B486"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>144</v>
+        <v>330</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
@@ -3867,7 +3866,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3885,19 +3884,19 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
@@ -3907,7 +3906,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3915,7 +3914,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3928,7 +3927,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3945,7 +3944,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3989,7 +3988,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.269000000000062</v>
+        <v>72.519000000000062</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3999,12 +3998,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>208.70799999999997</v>
+        <v>208.95799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>42</v>
       </c>
@@ -4026,7 +4025,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35619</v>
       </c>
@@ -4046,7 +4045,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35643</v>
       </c>
@@ -4066,7 +4065,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35674</v>
       </c>
@@ -4086,7 +4085,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35704</v>
       </c>
@@ -4106,7 +4105,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35735</v>
       </c>
@@ -4126,7 +4125,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35765</v>
       </c>
@@ -4146,7 +4145,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>43</v>
       </c>
@@ -4164,7 +4163,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>35796</v>
       </c>
@@ -4188,7 +4187,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35827</v>
       </c>
@@ -4214,7 +4213,7 @@
         <v>35832</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>46</v>
@@ -4236,7 +4235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>48</v>
@@ -4256,7 +4255,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f>EDATE(A19,1)</f>
         <v>35855</v>
@@ -4283,7 +4282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" ref="A23:A124" si="0">EDATE(A22,1)</f>
         <v>35886</v>
@@ -4304,7 +4303,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4331,7 +4330,7 @@
         <v>35940</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>45</v>
@@ -4353,7 +4352,7 @@
         <v>35930</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -4373,7 +4372,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f>EDATE(A24,1)</f>
         <v>35947</v>
@@ -4398,7 +4397,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35977</v>
@@ -4425,7 +4424,7 @@
         <v>35982</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -4452,7 +4451,7 @@
         <v>36024</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -4472,7 +4471,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f>EDATE(A29,1)</f>
         <v>36039</v>
@@ -4499,7 +4498,7 @@
         <v>36062</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>55</v>
@@ -4519,7 +4518,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36069</v>
@@ -4546,7 +4545,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>141</v>
@@ -4566,7 +4565,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>36100</v>
@@ -4591,7 +4590,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -4618,7 +4617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>61</v>
@@ -4640,7 +4639,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>63</v>
@@ -4660,7 +4659,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>64</v>
       </c>
@@ -4678,7 +4677,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A36,1)</f>
         <v>36161</v>
@@ -4703,7 +4702,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -4730,7 +4729,7 @@
         <v>36210</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>66</v>
@@ -4752,7 +4751,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f>EDATE(A41,1)</f>
         <v>36220</v>
@@ -4777,7 +4776,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -4799,7 +4798,7 @@
         <v>36244</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>45</v>
@@ -4821,7 +4820,7 @@
         <v>36248</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>70</v>
@@ -4841,13 +4840,13 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f>EDATE(A43,1)</f>
         <v>36251</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
@@ -4866,7 +4865,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -4893,7 +4892,7 @@
         <v>36283</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -4915,7 +4914,7 @@
         <v>36300</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>45</v>
@@ -4937,7 +4936,7 @@
         <v>36310</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>52</v>
@@ -4957,7 +4956,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A48,1)</f>
         <v>36312</v>
@@ -4982,7 +4981,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -5009,7 +5008,7 @@
         <v>36364</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5036,7 +5035,7 @@
         <v>36403</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5061,7 +5060,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -5082,7 +5081,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -5107,7 +5106,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -5134,7 +5133,7 @@
         <v>36501</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>74</v>
@@ -5156,7 +5155,7 @@
         <v>36516</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>75</v>
@@ -5176,7 +5175,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="48"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
         <v>76</v>
       </c>
@@ -5194,7 +5193,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="48"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f>EDATE(A58,1)</f>
         <v>36526</v>
@@ -5221,7 +5220,7 @@
         <v>36538</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>53</v>
@@ -5241,7 +5240,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36557</v>
@@ -5268,7 +5267,7 @@
         <v>36564</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>77</v>
@@ -5290,7 +5289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>65</v>
@@ -5310,7 +5309,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="48"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f>EDATE(A64,1)</f>
         <v>36586</v>
@@ -5335,7 +5334,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A67,1)</f>
         <v>36617</v>
@@ -5360,7 +5359,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>77</v>
@@ -5382,7 +5381,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>80</v>
@@ -5402,7 +5401,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f>EDATE(A68,1)</f>
         <v>36647</v>
@@ -5429,7 +5428,7 @@
         <v>36676</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>81</v>
@@ -5449,7 +5448,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f>EDATE(A71,1)</f>
         <v>36678</v>
@@ -5476,7 +5475,7 @@
         <v>36704</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>83</v>
@@ -5496,7 +5495,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="48"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A73,1)</f>
         <v>36708</v>
@@ -5517,7 +5516,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A75,1)</f>
         <v>36739</v>
@@ -5544,7 +5543,7 @@
         <v>36746</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>84</v>
@@ -5566,7 +5565,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>36770</v>
@@ -5593,7 +5592,7 @@
         <v>36798</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>86</v>
@@ -5613,7 +5612,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="48"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36800</v>
@@ -5634,7 +5633,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -5659,7 +5658,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f>EDATE(A81,1)</f>
         <v>36861</v>
@@ -5684,7 +5683,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="49" t="s">
         <v>45</v>
@@ -5706,7 +5705,7 @@
         <v>36879</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
         <v>87</v>
       </c>
@@ -5724,7 +5723,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A82,1)</f>
         <v>36892</v>
@@ -5749,7 +5748,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="50" t="s">
         <v>45</v>
@@ -5771,7 +5770,7 @@
         <v>36915</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A85,1)</f>
         <v>36923</v>
@@ -5798,7 +5797,7 @@
         <v>36938</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="50" t="s">
         <v>66</v>
@@ -5820,7 +5819,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36951</v>
@@ -5845,7 +5844,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -5870,7 +5869,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>94</v>
@@ -5892,7 +5891,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>37012</v>
@@ -5919,7 +5918,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -5944,7 +5943,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -5969,7 +5968,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -5990,7 +5989,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -6015,7 +6014,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A96,1)</f>
         <v>37165</v>
@@ -6042,7 +6041,7 @@
         <v>37165</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>45</v>
@@ -6064,7 +6063,7 @@
         <v>37183</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>37196</v>
@@ -6089,7 +6088,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>99</v>
@@ -6109,7 +6108,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f>EDATE(A99,1)</f>
         <v>37226</v>
@@ -6134,7 +6133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
         <v>101</v>
       </c>
@@ -6152,7 +6151,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>37257</v>
@@ -6173,7 +6172,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -6200,7 +6199,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>53</v>
@@ -6220,7 +6219,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>37316</v>
@@ -6241,7 +6240,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="0"/>
         <v>37347</v>
@@ -6268,7 +6267,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -6289,7 +6288,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="0"/>
         <v>37408</v>
@@ -6310,7 +6309,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -6331,7 +6330,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -6352,7 +6351,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -6373,7 +6372,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -6400,7 +6399,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>68</v>
@@ -6420,7 +6419,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37561</v>
@@ -6441,7 +6440,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -6462,7 +6461,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
         <v>106</v>
       </c>
@@ -6480,7 +6479,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>37622</v>
@@ -6501,7 +6500,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -6528,7 +6527,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -6555,7 +6554,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
         <v>37712</v>
@@ -6576,7 +6575,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A121,1)</f>
         <v>37742</v>
@@ -6597,7 +6596,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -6618,7 +6617,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -6639,7 +6638,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" ref="A125:A209" si="1">EDATE(A124,1)</f>
         <v>37834</v>
@@ -6660,7 +6659,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -6685,7 +6684,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -6712,7 +6711,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>37926</v>
@@ -6737,7 +6736,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -6762,7 +6761,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6782,7 +6781,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="47" t="s">
         <v>114</v>
       </c>
@@ -6800,7 +6799,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f>EDATE(A129,1)</f>
         <v>37987</v>
@@ -6825,7 +6824,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -6852,7 +6851,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>118</v>
@@ -6874,7 +6873,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A133,1)</f>
         <v>38047</v>
@@ -6899,7 +6898,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>68</v>
@@ -6919,7 +6918,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>68</v>
@@ -6939,7 +6938,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>68</v>
@@ -6959,7 +6958,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f>EDATE(A135,1)</f>
         <v>38078</v>
@@ -6986,7 +6985,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>71</v>
@@ -7006,7 +7005,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>38108</v>
@@ -7031,7 +7030,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -7058,7 +7057,7 @@
         <v>38149</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>124</v>
@@ -7080,7 +7079,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="48"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>38169</v>
@@ -7107,7 +7106,7 @@
         <v>38176</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>45</v>
@@ -7129,7 +7128,7 @@
         <v>38182</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>98</v>
@@ -7149,7 +7148,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="48"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A144,1)</f>
         <v>38200</v>
@@ -7176,7 +7175,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>45</v>
@@ -7198,7 +7197,7 @@
         <v>38215</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>126</v>
@@ -7218,7 +7217,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A147,1)</f>
         <v>38231</v>
@@ -7243,7 +7242,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -7270,7 +7269,7 @@
         <v>38273</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>45</v>
@@ -7292,7 +7291,7 @@
         <v>38285</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>128</v>
@@ -7312,7 +7311,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>38292</v>
@@ -7337,7 +7336,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -7364,7 +7363,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>142</v>
@@ -7384,7 +7383,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="47" t="s">
         <v>130</v>
       </c>
@@ -7402,7 +7401,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>38353</v>
@@ -7429,7 +7428,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -7456,7 +7455,7 @@
         <v>38401</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>68</v>
@@ -7476,7 +7475,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>99</v>
@@ -7496,7 +7495,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="48"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f>EDATE(A159,1)</f>
         <v>38412</v>
@@ -7521,7 +7520,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -7548,7 +7547,7 @@
         <v>38447</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>143</v>
@@ -7568,7 +7567,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="48"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A163,1)</f>
         <v>38473</v>
@@ -7593,7 +7592,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -7618,7 +7617,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>51</v>
@@ -7640,7 +7639,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>38534</v>
@@ -7665,7 +7664,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -7690,7 +7689,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -7715,7 +7714,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -7736,7 +7735,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>38657</v>
@@ -7763,7 +7762,7 @@
         <v>38666</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>45</v>
@@ -7785,7 +7784,7 @@
         <v>38674</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>127</v>
@@ -7805,7 +7804,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="48"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A172,1)</f>
         <v>38687</v>
@@ -7832,7 +7831,7 @@
         <v>38691</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>138</v>
@@ -7852,7 +7851,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>134</v>
@@ -7872,7 +7871,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="47" t="s">
         <v>140</v>
       </c>
@@ -7890,7 +7889,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="48"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f>EDATE(A175,1)</f>
         <v>38718</v>
@@ -7911,7 +7910,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="1"/>
         <v>38749</v>
@@ -7933,10 +7932,10 @@
       <c r="I180" s="9"/>
       <c r="J180" s="11"/>
       <c r="K180" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>68</v>
@@ -7953,13 +7952,13 @@
       <c r="I181" s="9"/>
       <c r="J181" s="11"/>
       <c r="K181" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C182" s="13"/>
       <c r="D182" s="39">
@@ -7976,7 +7975,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A180,1)</f>
         <v>38777</v>
@@ -8000,10 +7999,10 @@
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
       <c r="K183" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>45</v>
@@ -8025,10 +8024,10 @@
         <v>38799</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="39">
@@ -8045,13 +8044,13 @@
       <c r="J185" s="11"/>
       <c r="K185" s="48"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>38808</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C186" s="13">
         <v>1.25</v>
@@ -8070,13 +8069,13 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="1"/>
         <v>38838</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C187" s="13">
         <v>1.25</v>
@@ -8095,7 +8094,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="1"/>
         <v>38869</v>
@@ -8116,13 +8115,13 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="1"/>
         <v>38899</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C189" s="13">
         <v>1.25</v>
@@ -8141,13 +8140,13 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="1"/>
         <v>38930</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C190" s="13">
         <v>1.25</v>
@@ -8165,13 +8164,13 @@
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
       <c r="K190" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="39">
@@ -8188,7 +8187,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>38961</v>
@@ -8209,13 +8208,13 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="1"/>
         <v>38991</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C193" s="13">
         <v>1.25</v>
@@ -8234,13 +8233,13 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="1"/>
         <v>39022</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C194" s="13">
         <v>1.25</v>
@@ -8259,13 +8258,13 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="1"/>
         <v>39052</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C195" s="13">
         <v>1.25</v>
@@ -8284,7 +8283,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>113</v>
@@ -8304,9 +8303,9 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -8322,13 +8321,13 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f>EDATE(A195,1)</f>
         <v>39083</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C198" s="13">
         <v>1.25</v>
@@ -8347,13 +8346,13 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="1"/>
         <v>39114</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C199" s="13">
         <v>1.25</v>
@@ -8372,13 +8371,13 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="1"/>
         <v>39142</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C200" s="13">
         <v>1.25</v>
@@ -8397,7 +8396,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="1"/>
         <v>39173</v>
@@ -8418,13 +8417,13 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="1"/>
         <v>39203</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C202" s="13">
         <v>1.25</v>
@@ -8443,13 +8442,13 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="1"/>
         <v>39234</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C203" s="13">
         <v>1.25</v>
@@ -8468,7 +8467,7 @@
       <c r="J203" s="12"/>
       <c r="K203" s="15"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f t="shared" si="1"/>
         <v>39264</v>
@@ -8493,7 +8492,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f t="shared" si="1"/>
         <v>39295</v>
@@ -8518,13 +8517,13 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="1"/>
         <v>39326</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C206" s="13">
         <v>1.25</v>
@@ -8540,10 +8539,10 @@
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
       <c r="K206" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>136</v>
@@ -8563,7 +8562,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>39356</v>
@@ -8584,13 +8583,13 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="1"/>
         <v>39387</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C209" s="13">
         <v>1.25</v>
@@ -8608,10 +8607,10 @@
       <c r="I209" s="9"/>
       <c r="J209" s="11"/>
       <c r="K209" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>135</v>
@@ -8631,7 +8630,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A209,1)</f>
         <v>39417</v>
@@ -8656,9 +8655,9 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -8674,7 +8673,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>39448</v>
@@ -8696,13 +8695,13 @@
       <c r="I213" s="9"/>
       <c r="J213" s="11"/>
       <c r="K213" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="39">
@@ -8719,13 +8718,13 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>39479</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C215" s="13">
         <v>1.25</v>
@@ -8743,10 +8742,10 @@
       <c r="I215" s="9"/>
       <c r="J215" s="11"/>
       <c r="K215" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>68</v>
@@ -8763,13 +8762,13 @@
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
       <c r="K216" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C217" s="13"/>
       <c r="D217" s="39">
@@ -8786,13 +8785,13 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>39508</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C218" s="13">
         <v>1.25</v>
@@ -8811,13 +8810,13 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" ref="A219:A266" si="2">EDATE(A218,1)</f>
         <v>39539</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C219" s="13">
         <v>1.25</v>
@@ -8836,13 +8835,13 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="2"/>
         <v>39569</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C220" s="13">
         <v>1.25</v>
@@ -8861,7 +8860,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="2"/>
         <v>39600</v>
@@ -8886,7 +8885,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="2"/>
         <v>39630</v>
@@ -8913,10 +8912,10 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C223" s="13"/>
       <c r="D223" s="39">
@@ -8933,7 +8932,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="51"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f>EDATE(A222,1)</f>
         <v>39661</v>
@@ -8957,10 +8956,10 @@
       <c r="I224" s="9"/>
       <c r="J224" s="11"/>
       <c r="K224" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>84</v>
@@ -8982,10 +8981,10 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="39">
@@ -9002,13 +9001,13 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f>EDATE(A224,1)</f>
         <v>39692</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C227" s="13">
         <v>1.25</v>
@@ -9026,10 +9025,10 @@
       <c r="I227" s="9"/>
       <c r="J227" s="11"/>
       <c r="K227" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>83</v>
@@ -9049,13 +9048,13 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>39722</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C229" s="13">
         <v>1.25</v>
@@ -9074,13 +9073,13 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="2"/>
         <v>39753</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C230" s="13">
         <v>1.25</v>
@@ -9099,7 +9098,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="2"/>
         <v>39783</v>
@@ -9124,10 +9123,10 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C232" s="13"/>
       <c r="D232" s="39">
@@ -9144,9 +9143,9 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -9162,13 +9161,13 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A231,1)</f>
         <v>39814</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C234" s="13">
         <v>1.25</v>
@@ -9187,13 +9186,13 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="2"/>
         <v>39845</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C235" s="13">
         <v>1.25</v>
@@ -9212,13 +9211,13 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="2"/>
         <v>39873</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C236" s="13">
         <v>1.25</v>
@@ -9236,10 +9235,10 @@
       <c r="I236" s="9"/>
       <c r="J236" s="11"/>
       <c r="K236" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>94</v>
@@ -9256,10 +9255,10 @@
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
       <c r="K237" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>45</v>
@@ -9281,10 +9280,10 @@
         <v>39903</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C239" s="13"/>
       <c r="D239" s="39">
@@ -9301,13 +9300,13 @@
       <c r="J239" s="11"/>
       <c r="K239" s="48"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39904</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C240" s="13">
         <v>1.25</v>
@@ -9326,13 +9325,13 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="2"/>
         <v>39934</v>
       </c>
       <c r="B241" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C241" s="13">
         <v>1.25</v>
@@ -9351,7 +9350,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>61</v>
@@ -9371,7 +9370,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A241,1)</f>
         <v>39965</v>
@@ -9398,10 +9397,10 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C244" s="13"/>
       <c r="D244" s="39">
@@ -9418,13 +9417,13 @@
       <c r="J244" s="11"/>
       <c r="K244" s="48"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39995</v>
       </c>
       <c r="B245" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C245" s="13">
         <v>1.25</v>
@@ -9443,7 +9442,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="2"/>
         <v>40026</v>
@@ -9467,13 +9466,13 @@
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
       <c r="K246" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C247" s="13"/>
       <c r="D247" s="39">
@@ -9490,13 +9489,13 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>40057</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C248" s="13">
         <v>1.25</v>
@@ -9515,13 +9514,13 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>40087</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C249" s="13">
         <v>1.25</v>
@@ -9540,13 +9539,13 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="2"/>
         <v>40118</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C250" s="13">
         <v>1.25</v>
@@ -9565,7 +9564,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="2"/>
         <v>40148</v>
@@ -9589,13 +9588,13 @@
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
       <c r="K251" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C252" s="13"/>
       <c r="D252" s="39">
@@ -9612,9 +9611,9 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -9630,13 +9629,13 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A251,1)</f>
         <v>40179</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C254" s="13">
         <v>1.25</v>
@@ -9655,7 +9654,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>45</v>
@@ -9679,13 +9678,13 @@
         <v>40183</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>40210</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C256" s="13">
         <v>1.25</v>
@@ -9703,13 +9702,13 @@
       <c r="I256" s="9"/>
       <c r="J256" s="11"/>
       <c r="K256" s="20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C257" s="13"/>
       <c r="D257" s="39">
@@ -9726,7 +9725,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>51</v>
@@ -9745,10 +9744,10 @@
       <c r="I258" s="9"/>
       <c r="J258" s="11"/>
       <c r="K258" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f>EDATE(A256,1)</f>
         <v>40238</v>
@@ -9770,13 +9769,13 @@
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
       <c r="K259" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C260" s="13"/>
       <c r="D260" s="39">
@@ -9793,13 +9792,13 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>40269</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C261" s="13">
         <v>1.25</v>
@@ -9818,13 +9817,13 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="2"/>
         <v>40299</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C262" s="13">
         <v>1.25</v>
@@ -9843,7 +9842,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>61</v>
@@ -9862,16 +9861,16 @@
       <c r="I263" s="9"/>
       <c r="J263" s="11"/>
       <c r="K263" s="20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A262,1)</f>
         <v>40330</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C264" s="13">
         <v>1.25</v>
@@ -9890,13 +9889,13 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="2"/>
         <v>40360</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C265" s="13">
         <v>1.25</v>
@@ -9915,13 +9914,13 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="2"/>
         <v>40391</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C266" s="13">
         <v>1.25</v>
@@ -9940,7 +9939,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>45</v>
@@ -9962,7 +9961,7 @@
         <v>40393</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40422</v>
@@ -9989,10 +9988,10 @@
         <v>40441</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C269" s="13"/>
       <c r="D269" s="39">
@@ -10009,7 +10008,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="48"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>45</v>
@@ -10031,7 +10030,7 @@
         <v>40437</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f>EDATE(A268,1)</f>
         <v>40452</v>
@@ -10052,7 +10051,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A271,1)</f>
         <v>40483</v>
@@ -10074,10 +10073,10 @@
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>45</v>
@@ -10099,7 +10098,7 @@
         <v>40497</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>72</v>
@@ -10119,13 +10118,13 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A272,1)</f>
         <v>40513</v>
       </c>
       <c r="B275" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C275" s="13">
         <v>1.25</v>
@@ -10144,9 +10143,9 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -10162,7 +10161,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>40544</v>
@@ -10187,7 +10186,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>45</v>
@@ -10209,13 +10208,13 @@
         <v>40571</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>40575</v>
       </c>
       <c r="B279" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C279" s="13">
         <v>1.25</v>
@@ -10233,10 +10232,10 @@
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
       <c r="K279" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>68</v>
@@ -10253,13 +10252,13 @@
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
       <c r="K280" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="39">
@@ -10276,13 +10275,13 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>40603</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C282" s="13">
         <v>1.25</v>
@@ -10301,7 +10300,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>51</v>
@@ -10320,16 +10319,16 @@
       <c r="I283" s="9"/>
       <c r="J283" s="11"/>
       <c r="K283" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>40634</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C284" s="13">
         <v>1.25</v>
@@ -10348,7 +10347,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>45</v>
@@ -10370,13 +10369,13 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>40664</v>
       </c>
       <c r="B286" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C286" s="13">
         <v>1.25</v>
@@ -10395,7 +10394,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>45</v>
@@ -10417,13 +10416,13 @@
         <v>40676</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>40695</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C288" s="13">
         <v>1.25</v>
@@ -10442,7 +10441,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>51</v>
@@ -10461,16 +10460,16 @@
       <c r="I289" s="9"/>
       <c r="J289" s="11"/>
       <c r="K289" s="20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f>EDATE(A288,1)</f>
         <v>40725</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C290" s="13">
         <v>1.25</v>
@@ -10489,7 +10488,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>45</v>
@@ -10511,13 +10510,13 @@
         <v>40729</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f>EDATE(A290,1)</f>
         <v>40756</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C292" s="13">
         <v>1.25</v>
@@ -10536,7 +10535,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>45</v>
@@ -10558,13 +10557,13 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A292,1)</f>
         <v>40787</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C294" s="13">
         <v>1.25</v>
@@ -10583,7 +10582,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>51</v>
@@ -10603,13 +10602,13 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f>EDATE(A294,1)</f>
         <v>40817</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C296" s="13">
         <v>1.25</v>
@@ -10628,7 +10627,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>61</v>
@@ -10647,10 +10646,10 @@
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
       <c r="K297" s="20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>40848</v>
@@ -10672,10 +10671,10 @@
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
       <c r="K298" s="20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>45</v>
@@ -10697,10 +10696,10 @@
         <v>40868</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C300" s="13"/>
       <c r="D300" s="39">
@@ -10717,13 +10716,13 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f>EDATE(A298,1)</f>
         <v>40878</v>
       </c>
       <c r="B301" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C301" s="13">
         <v>1.25</v>
@@ -10742,7 +10741,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -10764,9 +10763,9 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -10782,7 +10781,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="48"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A301,1)</f>
         <v>40909</v>
@@ -10804,13 +10803,13 @@
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C305" s="13"/>
       <c r="D305" s="39">
@@ -10827,7 +10826,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>40940</v>
@@ -10854,7 +10853,7 @@
         <v>40596</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>68</v>
@@ -10871,13 +10870,13 @@
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
       <c r="K307" s="48" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C308" s="13"/>
       <c r="D308" s="39">
@@ -10894,7 +10893,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="48"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>61</v>
@@ -10914,13 +10913,13 @@
       <c r="J309" s="11"/>
       <c r="K309" s="48"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A306,1)</f>
         <v>40969</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C310" s="13">
         <v>1.25</v>
@@ -10939,13 +10938,13 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f t="shared" ref="A311:A331" si="3">EDATE(A310,1)</f>
         <v>41000</v>
       </c>
       <c r="B311" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C311" s="13">
         <v>1.25</v>
@@ -10964,13 +10963,13 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f t="shared" si="3"/>
         <v>41030</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C312" s="13">
         <v>1.25</v>
@@ -10989,7 +10988,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f t="shared" si="3"/>
         <v>41061</v>
@@ -11014,7 +11013,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -11039,7 +11038,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f t="shared" si="3"/>
         <v>41122</v>
@@ -11060,7 +11059,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A315,1)</f>
         <v>41153</v>
@@ -11085,7 +11084,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>84</v>
@@ -11105,7 +11104,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>41183</v>
@@ -11130,13 +11129,13 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="3"/>
         <v>41214</v>
       </c>
       <c r="B319" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C319" s="13">
         <v>1.25</v>
@@ -11155,7 +11154,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="3"/>
         <v>41244</v>
@@ -11177,13 +11176,13 @@
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C321" s="13"/>
       <c r="D321" s="39">
@@ -11199,13 +11198,13 @@
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C322" s="13"/>
       <c r="D322" s="39">
@@ -11222,9 +11221,9 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -11240,13 +11239,13 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f>EDATE(A320,1)</f>
         <v>41275</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C324" s="13">
         <v>1.25</v>
@@ -11265,7 +11264,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" si="3"/>
         <v>41306</v>
@@ -11289,13 +11288,13 @@
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
       <c r="K325" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C326" s="13"/>
       <c r="D326" s="39">
@@ -11311,10 +11310,10 @@
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
       <c r="K326" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>68</v>
@@ -11331,13 +11330,13 @@
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
       <c r="K327" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="39">
@@ -11354,13 +11353,13 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>41334</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C329" s="13">
         <v>1.25</v>
@@ -11379,7 +11378,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="3"/>
         <v>41365</v>
@@ -11400,7 +11399,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f t="shared" si="3"/>
         <v>41395</v>
@@ -11425,13 +11424,13 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A331,1)</f>
         <v>41426</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C332" s="13">
         <v>1.25</v>
@@ -11450,13 +11449,13 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" ref="A333:A363" si="4">EDATE(A332,1)</f>
         <v>41456</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C333" s="13">
         <v>1.25</v>
@@ -11475,13 +11474,13 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="4"/>
         <v>41487</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C334" s="13">
         <v>1.25</v>
@@ -11500,13 +11499,13 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="4"/>
         <v>41518</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C335" s="13">
         <v>1.25</v>
@@ -11525,13 +11524,13 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f t="shared" si="4"/>
         <v>41548</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C336" s="13">
         <v>1.25</v>
@@ -11550,13 +11549,13 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f t="shared" si="4"/>
         <v>41579</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C337" s="13">
         <v>1.25</v>
@@ -11575,13 +11574,13 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="4"/>
         <v>41609</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C338" s="13">
         <v>1.25</v>
@@ -11600,7 +11599,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>113</v>
@@ -11620,9 +11619,9 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -11638,13 +11637,13 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A338,1)</f>
         <v>41640</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C341" s="13">
         <v>1.25</v>
@@ -11663,7 +11662,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>84</v>
@@ -11683,13 +11682,13 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f>EDATE(A341,1)</f>
         <v>41671</v>
       </c>
       <c r="B343" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C343" s="13">
         <v>1.25</v>
@@ -11708,13 +11707,13 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" si="4"/>
         <v>41699</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C344" s="13">
         <v>1.25</v>
@@ -11733,13 +11732,13 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="4"/>
         <v>41730</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C345" s="13">
         <v>1.25</v>
@@ -11758,7 +11757,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="4"/>
         <v>41760</v>
@@ -11783,7 +11782,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="4"/>
         <v>41791</v>
@@ -11808,7 +11807,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="4"/>
         <v>41821</v>
@@ -11833,7 +11832,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="4"/>
         <v>41852</v>
@@ -11855,13 +11854,13 @@
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
       <c r="K349" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C350" s="13"/>
       <c r="D350" s="39">
@@ -11878,7 +11877,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A349,1)</f>
         <v>41883</v>
@@ -11902,10 +11901,10 @@
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
       <c r="K351" s="20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>95</v>
@@ -11925,7 +11924,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>84</v>
@@ -11945,7 +11944,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>41913</v>
@@ -11970,7 +11969,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" si="4"/>
         <v>41944</v>
@@ -11994,10 +11993,10 @@
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
       <c r="K355" s="20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="4"/>
         <v>41974</v>
@@ -12018,9 +12017,9 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -12036,7 +12035,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>42005</v>
@@ -12058,10 +12057,10 @@
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
       <c r="K358" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>90</v>
@@ -12081,13 +12080,13 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>42036</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C360" s="13">
         <v>1.25</v>
@@ -12105,13 +12104,13 @@
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
       <c r="K360" s="20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C361" s="13"/>
       <c r="D361" s="39">
@@ -12128,13 +12127,13 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f>EDATE(A360,1)</f>
         <v>42064</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C362" s="13">
         <v>1.25</v>
@@ -12153,13 +12152,13 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f t="shared" si="4"/>
         <v>42095</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C363" s="13">
         <v>1.25</v>
@@ -12178,13 +12177,13 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f>EDATE(A363,1)</f>
         <v>42125</v>
       </c>
       <c r="B364" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C364" s="13">
         <v>1.25</v>
@@ -12203,13 +12202,13 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f t="shared" ref="A365:A419" si="5">EDATE(A364,1)</f>
         <v>42156</v>
       </c>
       <c r="B365" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C365" s="13">
         <v>1.25</v>
@@ -12228,13 +12227,13 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f t="shared" si="5"/>
         <v>42186</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C366" s="13">
         <v>1.25</v>
@@ -12253,7 +12252,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f t="shared" si="5"/>
         <v>42217</v>
@@ -12278,7 +12277,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f t="shared" si="5"/>
         <v>42248</v>
@@ -12303,10 +12302,10 @@
         <v>42272</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C369" s="13"/>
       <c r="D369" s="39">
@@ -12323,7 +12322,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="48"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>42278</v>
@@ -12350,7 +12349,7 @@
         <v>42277</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>45</v>
@@ -12372,10 +12371,10 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C372" s="13"/>
       <c r="D372" s="39">
@@ -12392,13 +12391,13 @@
       <c r="J372" s="11"/>
       <c r="K372" s="48"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f>EDATE(A370,1)</f>
         <v>42309</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C373" s="13">
         <v>1.25</v>
@@ -12417,7 +12416,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="5"/>
         <v>42339</v>
@@ -12441,13 +12440,13 @@
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
       <c r="K374" s="20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C375" s="13"/>
       <c r="D375" s="39">
@@ -12464,9 +12463,9 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -12482,13 +12481,13 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>42370</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C377" s="13">
         <v>1.25</v>
@@ -12507,7 +12506,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>45</v>
@@ -12529,13 +12528,13 @@
         <v>42398</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>42401</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C379" s="13">
         <v>1.25</v>
@@ -12554,7 +12553,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>49</v>
@@ -12573,16 +12572,16 @@
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
       <c r="K380" s="20" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>42430</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C381" s="13">
         <v>1.25</v>
@@ -12601,13 +12600,13 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f t="shared" si="5"/>
         <v>42461</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C382" s="13">
         <v>1.25</v>
@@ -12626,13 +12625,13 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f t="shared" si="5"/>
         <v>42491</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C383" s="13">
         <v>1.25</v>
@@ -12651,7 +12650,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" si="5"/>
         <v>42522</v>
@@ -12676,13 +12675,13 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" si="5"/>
         <v>42552</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C385" s="13">
         <v>1.25</v>
@@ -12701,7 +12700,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f t="shared" si="5"/>
         <v>42583</v>
@@ -12726,13 +12725,13 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="5"/>
         <v>42614</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C387" s="13">
         <v>1.25</v>
@@ -12751,7 +12750,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="5"/>
         <v>42644</v>
@@ -12776,7 +12775,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f t="shared" si="5"/>
         <v>42675</v>
@@ -12797,13 +12796,13 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="5"/>
         <v>42705</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C390" s="13">
         <v>1.25</v>
@@ -12822,10 +12821,10 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C391" s="13"/>
       <c r="D391" s="39">
@@ -12842,9 +12841,9 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -12860,7 +12859,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>42736</v>
@@ -12885,7 +12884,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f t="shared" si="5"/>
         <v>42767</v>
@@ -12910,7 +12909,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>84</v>
@@ -12929,16 +12928,16 @@
       <c r="I395" s="9"/>
       <c r="J395" s="11"/>
       <c r="K395" s="20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f>EDATE(A394,1)</f>
         <v>42795</v>
       </c>
       <c r="B396" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C396" s="13">
         <v>1.25</v>
@@ -12957,7 +12956,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f t="shared" si="5"/>
         <v>42826</v>
@@ -12978,7 +12977,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="5"/>
         <v>42856</v>
@@ -13003,7 +13002,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f t="shared" si="5"/>
         <v>42887</v>
@@ -13025,10 +13024,10 @@
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
       <c r="K399" s="20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>51</v>
@@ -13047,16 +13046,16 @@
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
       <c r="K400" s="20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f>EDATE(A399,1)</f>
         <v>42917</v>
       </c>
       <c r="B401" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C401" s="13">
         <v>1.25</v>
@@ -13075,13 +13074,13 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f t="shared" si="5"/>
         <v>42948</v>
       </c>
       <c r="B402" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C402" s="13">
         <v>1.25</v>
@@ -13100,7 +13099,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="5"/>
         <v>42979</v>
@@ -13124,10 +13123,10 @@
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
       <c r="K403" s="20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>83</v>
@@ -13147,7 +13146,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>43009</v>
@@ -13171,13 +13170,13 @@
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
       <c r="K405" s="20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C406" s="13"/>
       <c r="D406" s="39">
@@ -13194,7 +13193,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>43040</v>
@@ -13215,7 +13214,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" si="5"/>
         <v>43070</v>
@@ -13239,13 +13238,13 @@
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
       <c r="K408" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C409" s="13"/>
       <c r="D409" s="39">
@@ -13262,9 +13261,9 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -13277,7 +13276,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A408,1)</f>
         <v>43101</v>
@@ -13298,7 +13297,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f t="shared" si="5"/>
         <v>43132</v>
@@ -13319,7 +13318,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f t="shared" si="5"/>
         <v>43160</v>
@@ -13340,7 +13339,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f t="shared" si="5"/>
         <v>43191</v>
@@ -13361,7 +13360,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f t="shared" si="5"/>
         <v>43221</v>
@@ -13382,7 +13381,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f t="shared" si="5"/>
         <v>43252</v>
@@ -13403,7 +13402,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f t="shared" si="5"/>
         <v>43282</v>
@@ -13424,7 +13423,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f t="shared" si="5"/>
         <v>43313</v>
@@ -13448,10 +13447,10 @@
       <c r="I418" s="9"/>
       <c r="J418" s="11"/>
       <c r="K418" s="20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f t="shared" si="5"/>
         <v>43344</v>
@@ -13472,7 +13471,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f>EDATE(A419,1)</f>
         <v>43374</v>
@@ -13493,7 +13492,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" ref="A421:A480" si="6">EDATE(A420,1)</f>
         <v>43405</v>
@@ -13514,7 +13513,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="6"/>
         <v>43435</v>
@@ -13536,10 +13535,10 @@
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
       <c r="K422" s="20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>77</v>
@@ -13558,12 +13557,12 @@
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
       <c r="K423" s="20" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -13579,7 +13578,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A422,1)</f>
         <v>43466</v>
@@ -13603,10 +13602,10 @@
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
       <c r="K425" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" si="6"/>
         <v>43497</v>
@@ -13630,10 +13629,10 @@
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
       <c r="K426" s="20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>68</v>
@@ -13650,10 +13649,10 @@
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
       <c r="K427" s="20" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f>EDATE(A426,1)</f>
         <v>43525</v>
@@ -13674,7 +13673,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f t="shared" si="6"/>
         <v>43556</v>
@@ -13695,7 +13694,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f t="shared" si="6"/>
         <v>43586</v>
@@ -13716,7 +13715,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="6"/>
         <v>43617</v>
@@ -13737,7 +13736,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="6"/>
         <v>43647</v>
@@ -13758,7 +13757,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="6"/>
         <v>43678</v>
@@ -13785,7 +13784,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f t="shared" si="6"/>
         <v>43709</v>
@@ -13806,7 +13805,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" si="6"/>
         <v>43739</v>
@@ -13827,7 +13826,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="6"/>
         <v>43770</v>
@@ -13851,10 +13850,10 @@
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
       <c r="K436" s="20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" si="6"/>
         <v>43800</v>
@@ -13875,9 +13874,9 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -13893,7 +13892,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>43831</v>
@@ -13914,13 +13913,13 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f t="shared" si="6"/>
         <v>43862</v>
       </c>
       <c r="B440" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C440" s="13">
         <v>1.25</v>
@@ -13936,13 +13935,13 @@
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
       <c r="K440" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C441" s="13"/>
       <c r="D441" s="39"/>
@@ -13956,10 +13955,10 @@
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
       <c r="K441" s="20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>43891</v>
@@ -13980,7 +13979,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f t="shared" si="6"/>
         <v>43922</v>
@@ -14001,7 +14000,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="6"/>
         <v>43952</v>
@@ -14022,7 +14021,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f t="shared" si="6"/>
         <v>43983</v>
@@ -14043,7 +14042,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="6"/>
         <v>44013</v>
@@ -14064,7 +14063,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="6"/>
         <v>44044</v>
@@ -14085,7 +14084,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f t="shared" si="6"/>
         <v>44075</v>
@@ -14106,7 +14105,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f t="shared" si="6"/>
         <v>44105</v>
@@ -14127,7 +14126,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f t="shared" si="6"/>
         <v>44136</v>
@@ -14149,10 +14148,10 @@
       <c r="I450" s="9"/>
       <c r="J450" s="11"/>
       <c r="K450" s="20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>66</v>
@@ -14171,10 +14170,10 @@
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
       <c r="K451" s="20" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f>EDATE(A450,1)</f>
         <v>44166</v>
@@ -14199,9 +14198,9 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -14217,7 +14216,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A452,1)</f>
         <v>44197</v>
@@ -14238,7 +14237,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <f t="shared" si="6"/>
         <v>44228</v>
@@ -14259,7 +14258,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f t="shared" si="6"/>
         <v>44256</v>
@@ -14280,7 +14279,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f t="shared" si="6"/>
         <v>44287</v>
@@ -14301,7 +14300,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" si="6"/>
         <v>44317</v>
@@ -14322,7 +14321,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="6"/>
         <v>44348</v>
@@ -14343,7 +14342,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f t="shared" si="6"/>
         <v>44378</v>
@@ -14364,7 +14363,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <f t="shared" si="6"/>
         <v>44409</v>
@@ -14385,7 +14384,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f t="shared" si="6"/>
         <v>44440</v>
@@ -14406,7 +14405,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f t="shared" si="6"/>
         <v>44470</v>
@@ -14427,7 +14426,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f t="shared" si="6"/>
         <v>44501</v>
@@ -14448,13 +14447,13 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f t="shared" si="6"/>
         <v>44531</v>
       </c>
       <c r="B465" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C465" s="13">
         <v>1.25</v>
@@ -14473,9 +14472,9 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -14491,7 +14490,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f>EDATE(A465,1)</f>
         <v>44562</v>
@@ -14512,7 +14511,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f t="shared" si="6"/>
         <v>44593</v>
@@ -14533,7 +14532,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="6"/>
         <v>44621</v>
@@ -14554,7 +14553,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="6"/>
         <v>44652</v>
@@ -14575,7 +14574,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f t="shared" si="6"/>
         <v>44682</v>
@@ -14596,7 +14595,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f t="shared" si="6"/>
         <v>44713</v>
@@ -14617,7 +14616,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f t="shared" si="6"/>
         <v>44743</v>
@@ -14638,7 +14637,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f t="shared" si="6"/>
         <v>44774</v>
@@ -14660,10 +14659,10 @@
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
       <c r="K474" s="20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <f t="shared" si="6"/>
         <v>44805</v>
@@ -14684,7 +14683,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <f t="shared" si="6"/>
         <v>44835</v>
@@ -14708,10 +14707,10 @@
       <c r="I476" s="9"/>
       <c r="J476" s="11"/>
       <c r="K476" s="20" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>68</v>
@@ -14731,7 +14730,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>59</v>
@@ -14750,10 +14749,10 @@
       <c r="I478" s="9"/>
       <c r="J478" s="11"/>
       <c r="K478" s="48" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f>EDATE(A476,1)</f>
         <v>44866</v>
@@ -14774,7 +14773,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f t="shared" si="6"/>
         <v>44896</v>
@@ -14798,12 +14797,12 @@
       <c r="I480" s="9"/>
       <c r="J480" s="11"/>
       <c r="K480" s="20" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -14819,7 +14818,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f>EDATE(A480,1)</f>
         <v>44927</v>
@@ -14844,7 +14843,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44958</v>
       </c>
@@ -14870,7 +14869,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>46</v>
@@ -14889,14 +14888,14 @@
       <c r="I484" s="9"/>
       <c r="J484" s="11"/>
       <c r="K484" s="48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A485" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B485" s="20"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" s="40"/>
+      <c r="B485" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C485" s="13"/>
       <c r="D485" s="39"/>
       <c r="E485" s="9"/>
@@ -14905,32 +14904,42 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H485" s="39"/>
+      <c r="H485" s="39">
+        <v>1</v>
+      </c>
       <c r="I485" s="9"/>
       <c r="J485" s="11"/>
-      <c r="K485" s="20"/>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K485" s="48">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B486" s="20"/>
-      <c r="C486" s="13"/>
+        <v>44986</v>
+      </c>
+      <c r="B486" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C486" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D486" s="39"/>
       <c r="E486" s="9"/>
       <c r="F486" s="20"/>
-      <c r="G486" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G486" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H486" s="39"/>
       <c r="I486" s="9"/>
       <c r="J486" s="11"/>
-      <c r="K486" s="20"/>
-    </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K486" s="48">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -14946,9 +14955,9 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -14964,9 +14973,9 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14982,9 +14991,9 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -15000,9 +15009,9 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -15018,9 +15027,9 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -15036,9 +15045,9 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -15054,9 +15063,9 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -15072,9 +15081,9 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -15090,9 +15099,9 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -15108,9 +15117,9 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -15126,9 +15135,9 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -15144,9 +15153,9 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -15162,9 +15171,9 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -15180,9 +15189,9 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -15198,9 +15207,9 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -15216,9 +15225,9 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -15234,9 +15243,9 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -15252,9 +15261,9 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -15270,9 +15279,9 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -15288,9 +15297,9 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -15306,9 +15315,9 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -15324,9 +15333,9 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -15342,9 +15351,9 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15360,9 +15369,9 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15378,9 +15387,9 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15396,9 +15405,9 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15414,9 +15423,9 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15432,9 +15441,9 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15450,9 +15459,9 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15468,9 +15477,9 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15486,9 +15495,9 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15504,9 +15513,9 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15522,9 +15531,9 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15540,9 +15549,9 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15558,9 +15567,9 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15576,9 +15585,9 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15594,9 +15603,9 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15612,9 +15621,9 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15630,9 +15639,9 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15648,9 +15657,9 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15666,9 +15675,9 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15684,9 +15693,9 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15702,9 +15711,9 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15720,9 +15729,9 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15738,9 +15747,9 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15756,9 +15765,9 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15774,9 +15783,9 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15792,9 +15801,9 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15810,9 +15819,9 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15828,9 +15837,9 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15846,9 +15855,9 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15864,9 +15873,9 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15882,9 +15891,9 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15900,9 +15909,9 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15918,9 +15927,9 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15936,9 +15945,9 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15954,9 +15963,9 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15972,9 +15981,9 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15990,9 +15999,9 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16008,9 +16017,9 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16026,9 +16035,9 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16044,9 +16053,9 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16062,9 +16071,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16080,9 +16089,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16098,9 +16107,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16116,9 +16125,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16134,9 +16143,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16152,9 +16161,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16170,9 +16179,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16188,9 +16197,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16206,9 +16215,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16224,9 +16233,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16242,9 +16251,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16260,9 +16269,9 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16278,9 +16287,9 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16296,9 +16305,9 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16314,9 +16323,9 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16332,9 +16341,9 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16350,9 +16359,9 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16368,8 +16377,10 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A567" s="40"/>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A567" s="40">
+        <v>47453</v>
+      </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
       <c r="D567" s="39"/>
@@ -16384,7 +16395,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16400,7 +16411,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16416,7 +16427,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16432,7 +16443,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16448,7 +16459,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16464,7 +16475,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16480,7 +16491,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16496,7 +16507,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16512,7 +16523,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16528,7 +16539,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16544,7 +16555,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16560,7 +16571,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16576,7 +16587,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16592,7 +16603,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16608,7 +16619,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16624,7 +16635,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16640,7 +16651,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16656,7 +16667,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16672,7 +16683,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16688,7 +16699,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16704,7 +16715,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16720,7 +16731,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16736,7 +16747,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16752,7 +16763,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16768,7 +16779,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16784,7 +16795,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16800,21 +16811,37 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A594" s="52"/>
-      <c r="B594" s="15"/>
-      <c r="C594" s="41"/>
-      <c r="D594" s="42"/>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="40"/>
+      <c r="B594" s="20"/>
+      <c r="C594" s="13"/>
+      <c r="D594" s="39"/>
       <c r="E594" s="9"/>
-      <c r="F594" s="15"/>
-      <c r="G594" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H594" s="42"/>
+      <c r="F594" s="20"/>
+      <c r="G594" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H594" s="39"/>
       <c r="I594" s="9"/>
-      <c r="J594" s="12"/>
-      <c r="K594" s="15"/>
+      <c r="J594" s="11"/>
+      <c r="K594" s="20"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" s="52"/>
+      <c r="B595" s="15"/>
+      <c r="C595" s="41"/>
+      <c r="D595" s="42"/>
+      <c r="E595" s="9"/>
+      <c r="F595" s="15"/>
+      <c r="G595" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="42"/>
+      <c r="I595" s="9"/>
+      <c r="J595" s="12"/>
+      <c r="K595" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16831,10 +16858,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16857,7 +16884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16865,21 +16892,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16892,7 +16919,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16921,7 +16948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -16947,17 +16974,17 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16978,7 +17005,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17005,7 +17032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17031,7 +17058,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17057,7 +17084,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17083,7 +17110,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17109,7 +17136,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17135,7 +17162,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17161,7 +17188,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17187,7 +17214,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17207,7 +17234,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17227,7 +17254,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17247,7 +17274,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17268,7 +17295,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17289,7 +17316,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17310,7 +17337,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17331,7 +17358,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17352,7 +17379,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17373,7 +17400,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17394,7 +17421,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17415,7 +17442,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17436,7 +17463,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17457,7 +17484,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17478,7 +17505,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17499,7 +17526,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17520,7 +17547,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17541,7 +17568,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17562,7 +17589,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17583,7 +17610,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17604,7 +17631,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17625,7 +17652,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17646,7 +17673,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17667,7 +17694,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17676,7 +17703,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17685,7 +17712,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17694,7 +17721,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17703,7 +17730,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17712,7 +17739,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17721,7 +17748,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17730,7 +17757,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17739,7 +17766,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17748,7 +17775,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17757,7 +17784,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17766,7 +17793,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17775,7 +17802,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17784,7 +17811,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17793,7 +17820,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17802,7 +17829,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17811,7 +17838,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17820,7 +17847,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17829,7 +17856,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17838,7 +17865,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17847,7 +17874,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17856,7 +17883,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17865,7 +17892,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17874,7 +17901,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17883,7 +17910,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17892,7 +17919,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17901,7 +17928,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17910,7 +17937,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17919,7 +17946,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17928,7 +17955,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/PERENA, RUBILINDA.xlsx
+++ b/REGULAR/PERENA, RUBILINDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="331">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1909,7 +1909,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1952,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2016,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2142,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2205,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2303,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2362,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2427,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2470,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2545,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2731,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2797,7 +2797,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2855,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2921,7 +2921,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,7 +2977,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3052,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3095,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3161,7 +3161,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3217,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,7 +3315,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3378,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3827,7 +3827,7 @@
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="3660" topLeftCell="A472" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B486" sqref="B486"/>
+      <selection pane="bottomLeft" activeCell="B488" sqref="B488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3988,7 +3988,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.519000000000062</v>
+        <v>73.769000000000062</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3998,7 +3998,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>208.95799999999997</v>
+        <v>208.20799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14941,25 +14941,35 @@
       <c r="A487" s="40">
         <v>45017</v>
       </c>
-      <c r="B487" s="20"/>
-      <c r="C487" s="13"/>
+      <c r="B487" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C487" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D487" s="39"/>
       <c r="E487" s="9"/>
       <c r="F487" s="20"/>
-      <c r="G487" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H487" s="39"/>
+      <c r="G487" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H487" s="39">
+        <v>1</v>
+      </c>
       <c r="I487" s="9"/>
       <c r="J487" s="11"/>
-      <c r="K487" s="20"/>
+      <c r="K487" s="48">
+        <v>45040</v>
+      </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>45047</v>
       </c>
-      <c r="B488" s="20"/>
+      <c r="B488" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C488" s="13"/>
       <c r="D488" s="39"/>
       <c r="E488" s="9"/>
@@ -14968,10 +14978,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H488" s="39"/>
+      <c r="H488" s="39">
+        <v>1</v>
+      </c>
       <c r="I488" s="9"/>
       <c r="J488" s="11"/>
-      <c r="K488" s="20"/>
+      <c r="K488" s="48">
+        <v>45048</v>
+      </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">

--- a/REGULAR/PERENA, RUBILINDA.xlsx
+++ b/REGULAR/PERENA, RUBILINDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="331">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1909,7 +1909,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1952,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2016,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2142,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2205,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2303,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2362,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2427,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2470,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2545,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2731,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2797,7 +2797,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2855,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2921,7 +2921,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,7 +2977,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3052,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3095,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3161,7 +3161,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3217,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,7 +3315,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3378,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,7 +3444,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K595" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K596" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="21"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="20"/>
@@ -3822,12 +3822,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K595"/>
+  <dimension ref="A2:K596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="3660" topLeftCell="A472" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B488" sqref="B488"/>
+      <selection pane="bottomLeft" activeCell="E490" sqref="E490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3998,7 +3998,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>208.20799999999997</v>
+        <v>207.20799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14988,10 +14988,10 @@
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B489" s="20"/>
+      <c r="A489" s="40"/>
+      <c r="B489" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C489" s="13"/>
       <c r="D489" s="39"/>
       <c r="E489" s="9"/>
@@ -15000,14 +15000,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H489" s="39"/>
+      <c r="H489" s="39">
+        <v>1</v>
+      </c>
       <c r="I489" s="9"/>
       <c r="J489" s="11"/>
-      <c r="K489" s="20"/>
+      <c r="K489" s="48">
+        <v>45055</v>
+      </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -15025,7 +15029,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -15043,7 +15047,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -15061,7 +15065,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -15079,7 +15083,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -15097,7 +15101,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -15115,7 +15119,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -15133,7 +15137,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -15151,7 +15155,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -15169,7 +15173,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -15187,7 +15191,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -15205,7 +15209,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -15223,7 +15227,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -15241,7 +15245,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -15259,7 +15263,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -15277,7 +15281,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -15295,7 +15299,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -15313,7 +15317,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -15331,7 +15335,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -15349,7 +15353,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -15367,7 +15371,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15385,7 +15389,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15403,7 +15407,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15421,7 +15425,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15439,7 +15443,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15457,7 +15461,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15475,7 +15479,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15493,7 +15497,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15511,7 +15515,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15529,7 +15533,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15547,7 +15551,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15565,7 +15569,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15583,7 +15587,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15601,7 +15605,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15619,7 +15623,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15637,7 +15641,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15655,7 +15659,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15673,7 +15677,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15691,7 +15695,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15709,7 +15713,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15727,7 +15731,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15745,7 +15749,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15763,7 +15767,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15781,7 +15785,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15799,7 +15803,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15817,7 +15821,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15835,7 +15839,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15853,7 +15857,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15871,7 +15875,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15889,7 +15893,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15907,7 +15911,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15925,7 +15929,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15943,7 +15947,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15961,7 +15965,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15979,7 +15983,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15997,7 +16001,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -16015,7 +16019,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16033,7 +16037,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16051,7 +16055,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16069,7 +16073,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16087,7 +16091,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16105,7 +16109,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16123,7 +16127,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16141,7 +16145,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16159,7 +16163,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16177,7 +16181,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16195,7 +16199,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16213,7 +16217,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16231,7 +16235,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16249,7 +16253,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16267,7 +16271,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16285,7 +16289,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16303,7 +16307,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16321,7 +16325,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16339,7 +16343,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16357,7 +16361,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16375,7 +16379,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16393,7 +16397,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16410,7 +16414,9 @@
       <c r="K567" s="20"/>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40"/>
+      <c r="A568" s="40">
+        <v>47453</v>
+      </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
       <c r="D568" s="39"/>
@@ -16842,20 +16848,36 @@
       <c r="K594" s="20"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A595" s="52"/>
-      <c r="B595" s="15"/>
-      <c r="C595" s="41"/>
-      <c r="D595" s="42"/>
+      <c r="A595" s="40"/>
+      <c r="B595" s="20"/>
+      <c r="C595" s="13"/>
+      <c r="D595" s="39"/>
       <c r="E595" s="9"/>
-      <c r="F595" s="15"/>
-      <c r="G595" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H595" s="42"/>
+      <c r="F595" s="20"/>
+      <c r="G595" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="39"/>
       <c r="I595" s="9"/>
-      <c r="J595" s="12"/>
-      <c r="K595" s="15"/>
+      <c r="J595" s="11"/>
+      <c r="K595" s="20"/>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596" s="52"/>
+      <c r="B596" s="15"/>
+      <c r="C596" s="41"/>
+      <c r="D596" s="42"/>
+      <c r="E596" s="9"/>
+      <c r="F596" s="15"/>
+      <c r="G596" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H596" s="42"/>
+      <c r="I596" s="9"/>
+      <c r="J596" s="12"/>
+      <c r="K596" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/PERENA, RUBILINDA.xlsx
+++ b/REGULAR/PERENA, RUBILINDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="332">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1027,6 +1027,9 @@
   </si>
   <si>
     <t>PEREÑA, RUBILINDA</t>
+  </si>
+  <si>
+    <t>6/13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -3444,7 +3447,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K596" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="21"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="20"/>
@@ -3822,12 +3825,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K596"/>
+  <dimension ref="A2:K597"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3660" topLeftCell="A472" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E490" sqref="E490"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3660" topLeftCell="A481" activePane="bottomLeft"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomLeft" activeCell="K492" sqref="K492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3988,7 +3991,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>73.769000000000062</v>
+        <v>75.019000000000062</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3998,7 +4001,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>207.20799999999997</v>
+        <v>205.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14970,13 +14973,15 @@
       <c r="B488" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C488" s="13"/>
+      <c r="C488" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D488" s="39"/>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G488" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H488" s="39">
         <v>1</v>
@@ -15013,7 +15018,9 @@
       <c r="A490" s="40">
         <v>45078</v>
       </c>
-      <c r="B490" s="20"/>
+      <c r="B490" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C490" s="13"/>
       <c r="D490" s="39"/>
       <c r="E490" s="9"/>
@@ -15022,16 +15029,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H490" s="39"/>
+      <c r="H490" s="39">
+        <v>2</v>
+      </c>
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
-      <c r="K490" s="20"/>
+      <c r="K490" s="20" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A491" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B491" s="20"/>
+      <c r="A491" s="40"/>
+      <c r="B491" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C491" s="13"/>
       <c r="D491" s="39"/>
       <c r="E491" s="9"/>
@@ -15040,14 +15051,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H491" s="39"/>
+      <c r="H491" s="39">
+        <v>1</v>
+      </c>
       <c r="I491" s="9"/>
       <c r="J491" s="11"/>
-      <c r="K491" s="20"/>
+      <c r="K491" s="48">
+        <v>45096</v>
+      </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -15065,7 +15080,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -15083,7 +15098,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -15101,7 +15116,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -15119,7 +15134,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -15137,7 +15152,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -15155,7 +15170,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -15173,7 +15188,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -15191,7 +15206,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -15209,7 +15224,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -15227,7 +15242,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -15245,7 +15260,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -15263,7 +15278,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -15281,7 +15296,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -15299,7 +15314,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -15317,7 +15332,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -15335,7 +15350,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -15353,7 +15368,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -15371,7 +15386,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15389,7 +15404,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15407,7 +15422,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15425,7 +15440,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15443,7 +15458,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15461,7 +15476,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15479,7 +15494,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15497,7 +15512,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15515,7 +15530,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15533,7 +15548,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15551,7 +15566,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15569,7 +15584,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15587,7 +15602,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15605,7 +15620,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15623,7 +15638,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15641,7 +15656,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15659,7 +15674,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15677,7 +15692,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15695,7 +15710,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15713,7 +15728,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15731,7 +15746,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15749,7 +15764,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15767,7 +15782,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15785,7 +15800,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15803,7 +15818,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15821,7 +15836,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15839,7 +15854,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15857,7 +15872,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15875,7 +15890,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15893,7 +15908,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15911,7 +15926,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15929,7 +15944,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15947,7 +15962,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15965,7 +15980,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15983,7 +15998,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -16001,7 +16016,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -16019,7 +16034,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16037,7 +16052,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16055,7 +16070,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16073,7 +16088,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16091,7 +16106,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16109,7 +16124,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16127,7 +16142,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16145,7 +16160,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16163,7 +16178,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16181,7 +16196,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16199,7 +16214,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16217,7 +16232,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16235,7 +16250,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16253,7 +16268,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16271,7 +16286,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16289,7 +16304,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16307,7 +16322,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16325,7 +16340,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16343,7 +16358,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16361,7 +16376,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16379,7 +16394,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16397,7 +16412,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16415,7 +16430,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16432,7 +16447,9 @@
       <c r="K568" s="20"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40"/>
+      <c r="A569" s="40">
+        <v>47453</v>
+      </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
       <c r="D569" s="39"/>
@@ -16864,20 +16881,36 @@
       <c r="K595" s="20"/>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A596" s="52"/>
-      <c r="B596" s="15"/>
-      <c r="C596" s="41"/>
-      <c r="D596" s="42"/>
+      <c r="A596" s="40"/>
+      <c r="B596" s="20"/>
+      <c r="C596" s="13"/>
+      <c r="D596" s="39"/>
       <c r="E596" s="9"/>
-      <c r="F596" s="15"/>
-      <c r="G596" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H596" s="42"/>
+      <c r="F596" s="20"/>
+      <c r="G596" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H596" s="39"/>
       <c r="I596" s="9"/>
-      <c r="J596" s="12"/>
-      <c r="K596" s="15"/>
+      <c r="J596" s="11"/>
+      <c r="K596" s="20"/>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A597" s="52"/>
+      <c r="B597" s="15"/>
+      <c r="C597" s="41"/>
+      <c r="D597" s="42"/>
+      <c r="E597" s="9"/>
+      <c r="F597" s="15"/>
+      <c r="G597" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H597" s="42"/>
+      <c r="I597" s="9"/>
+      <c r="J597" s="12"/>
+      <c r="K597" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16893,7 +16926,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>

--- a/REGULAR/PERENA, RUBILINDA.xlsx
+++ b/REGULAR/PERENA, RUBILINDA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4193E55-8D31-46C8-B32B-F4BC3D84CB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1035,7 +1036,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1912,7 +1913,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1956,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2020,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2080,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2146,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2209,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2307,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2366,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2431,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2474,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2549,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2734,7 +2735,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2801,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2859,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2924,7 +2925,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2981,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3055,7 +3056,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,7 +3099,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3165,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,7 +3221,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3318,7 +3319,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,7 +3382,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3430,7 +3431,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3447,25 +3448,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="21"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="20"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="19"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="18"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="16"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="15">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="13">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3477,13 +3478,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS" dataDxfId="6"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3492,14 +3493,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3803,7 +3804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3813,7 +3814,7 @@
       <selection activeCell="G3" activeCellId="1" sqref="G3 G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3821,34 +3822,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3660" topLeftCell="A481" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K492" sqref="K492"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="3252" topLeftCell="A477"/>
+      <selection activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="G482" sqref="G482:H491"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3869,7 +3870,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3887,7 +3888,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3909,7 +3910,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3917,7 +3918,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3930,7 +3931,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3947,7 +3948,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3991,7 +3992,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>75.019000000000062</v>
+        <v>76.269000000000062</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4001,12 +4002,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>205.45799999999997</v>
+        <v>206.70799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>42</v>
       </c>
@@ -4028,7 +4029,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35619</v>
       </c>
@@ -4048,7 +4049,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35643</v>
       </c>
@@ -4068,7 +4069,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35674</v>
       </c>
@@ -4088,7 +4089,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35704</v>
       </c>
@@ -4108,7 +4109,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35735</v>
       </c>
@@ -4128,7 +4129,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35765</v>
       </c>
@@ -4148,7 +4149,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>43</v>
       </c>
@@ -4166,7 +4167,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>35796</v>
       </c>
@@ -4190,7 +4191,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35827</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>35832</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>46</v>
@@ -4238,7 +4239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>48</v>
@@ -4258,7 +4259,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f>EDATE(A19,1)</f>
         <v>35855</v>
@@ -4285,7 +4286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" ref="A23:A124" si="0">EDATE(A22,1)</f>
         <v>35886</v>
@@ -4306,7 +4307,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4333,7 +4334,7 @@
         <v>35940</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>45</v>
@@ -4355,7 +4356,7 @@
         <v>35930</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -4375,7 +4376,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f>EDATE(A24,1)</f>
         <v>35947</v>
@@ -4400,7 +4401,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35977</v>
@@ -4427,7 +4428,7 @@
         <v>35982</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -4454,7 +4455,7 @@
         <v>36024</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -4474,7 +4475,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f>EDATE(A29,1)</f>
         <v>36039</v>
@@ -4501,7 +4502,7 @@
         <v>36062</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>55</v>
@@ -4521,7 +4522,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36069</v>
@@ -4548,7 +4549,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>141</v>
@@ -4568,7 +4569,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>36100</v>
@@ -4593,7 +4594,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -4620,7 +4621,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>61</v>
@@ -4642,7 +4643,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>63</v>
@@ -4662,7 +4663,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>64</v>
       </c>
@@ -4680,7 +4681,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A36,1)</f>
         <v>36161</v>
@@ -4705,7 +4706,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -4732,7 +4733,7 @@
         <v>36210</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>66</v>
@@ -4754,7 +4755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A41,1)</f>
         <v>36220</v>
@@ -4779,7 +4780,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -4801,7 +4802,7 @@
         <v>36244</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>45</v>
@@ -4823,7 +4824,7 @@
         <v>36248</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>70</v>
@@ -4843,7 +4844,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f>EDATE(A43,1)</f>
         <v>36251</v>
@@ -4868,7 +4869,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -4895,7 +4896,7 @@
         <v>36283</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -4917,7 +4918,7 @@
         <v>36300</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>45</v>
@@ -4939,7 +4940,7 @@
         <v>36310</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>52</v>
@@ -4959,7 +4960,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A48,1)</f>
         <v>36312</v>
@@ -4984,7 +4985,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -5011,7 +5012,7 @@
         <v>36364</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5038,7 +5039,7 @@
         <v>36403</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5063,7 +5064,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -5084,7 +5085,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -5109,7 +5110,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -5136,7 +5137,7 @@
         <v>36501</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>74</v>
@@ -5158,7 +5159,7 @@
         <v>36516</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>75</v>
@@ -5178,7 +5179,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="48"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>76</v>
       </c>
@@ -5196,7 +5197,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="48"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f>EDATE(A58,1)</f>
         <v>36526</v>
@@ -5223,7 +5224,7 @@
         <v>36538</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>53</v>
@@ -5243,7 +5244,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36557</v>
@@ -5270,7 +5271,7 @@
         <v>36564</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>77</v>
@@ -5292,7 +5293,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>65</v>
@@ -5312,7 +5313,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="48"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f>EDATE(A64,1)</f>
         <v>36586</v>
@@ -5337,7 +5338,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A67,1)</f>
         <v>36617</v>
@@ -5362,7 +5363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>77</v>
@@ -5384,7 +5385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>80</v>
@@ -5404,7 +5405,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f>EDATE(A68,1)</f>
         <v>36647</v>
@@ -5431,7 +5432,7 @@
         <v>36676</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>81</v>
@@ -5451,7 +5452,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A71,1)</f>
         <v>36678</v>
@@ -5478,7 +5479,7 @@
         <v>36704</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>83</v>
@@ -5498,7 +5499,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="48"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f>EDATE(A73,1)</f>
         <v>36708</v>
@@ -5519,7 +5520,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A75,1)</f>
         <v>36739</v>
@@ -5546,7 +5547,7 @@
         <v>36746</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>84</v>
@@ -5568,7 +5569,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>36770</v>
@@ -5595,7 +5596,7 @@
         <v>36798</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>86</v>
@@ -5615,7 +5616,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="48"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36800</v>
@@ -5636,7 +5637,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -5661,7 +5662,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f>EDATE(A81,1)</f>
         <v>36861</v>
@@ -5686,7 +5687,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="49" t="s">
         <v>45</v>
@@ -5708,7 +5709,7 @@
         <v>36879</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
         <v>87</v>
       </c>
@@ -5726,7 +5727,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A82,1)</f>
         <v>36892</v>
@@ -5751,7 +5752,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="50" t="s">
         <v>45</v>
@@ -5773,7 +5774,7 @@
         <v>36915</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f>EDATE(A85,1)</f>
         <v>36923</v>
@@ -5800,7 +5801,7 @@
         <v>36938</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="50" t="s">
         <v>66</v>
@@ -5822,7 +5823,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36951</v>
@@ -5847,7 +5848,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -5872,7 +5873,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>94</v>
@@ -5894,7 +5895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>37012</v>
@@ -5921,7 +5922,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -5946,7 +5947,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -5971,7 +5972,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -5992,7 +5993,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -6017,7 +6018,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f>EDATE(A96,1)</f>
         <v>37165</v>
@@ -6044,7 +6045,7 @@
         <v>37165</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>45</v>
@@ -6066,7 +6067,7 @@
         <v>37183</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>37196</v>
@@ -6091,7 +6092,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>99</v>
@@ -6111,7 +6112,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f>EDATE(A99,1)</f>
         <v>37226</v>
@@ -6136,7 +6137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
         <v>101</v>
       </c>
@@ -6154,7 +6155,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>37257</v>
@@ -6175,7 +6176,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -6202,7 +6203,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>53</v>
@@ -6222,7 +6223,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>37316</v>
@@ -6243,7 +6244,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="0"/>
         <v>37347</v>
@@ -6270,7 +6271,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -6291,7 +6292,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="0"/>
         <v>37408</v>
@@ -6312,7 +6313,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -6333,7 +6334,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -6354,7 +6355,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -6375,7 +6376,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -6402,7 +6403,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>68</v>
@@ -6422,7 +6423,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37561</v>
@@ -6443,7 +6444,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -6464,7 +6465,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="47" t="s">
         <v>106</v>
       </c>
@@ -6482,7 +6483,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>37622</v>
@@ -6503,7 +6504,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -6530,7 +6531,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -6557,7 +6558,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
         <v>37712</v>
@@ -6578,7 +6579,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A121,1)</f>
         <v>37742</v>
@@ -6599,7 +6600,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -6620,7 +6621,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -6641,7 +6642,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" ref="A125:A209" si="1">EDATE(A124,1)</f>
         <v>37834</v>
@@ -6662,7 +6663,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -6687,7 +6688,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -6714,7 +6715,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>37926</v>
@@ -6739,7 +6740,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -6764,7 +6765,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6784,7 +6785,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="47" t="s">
         <v>114</v>
       </c>
@@ -6802,7 +6803,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A129,1)</f>
         <v>37987</v>
@@ -6827,7 +6828,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -6854,7 +6855,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>118</v>
@@ -6876,7 +6877,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f>EDATE(A133,1)</f>
         <v>38047</v>
@@ -6901,7 +6902,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>68</v>
@@ -6921,7 +6922,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>68</v>
@@ -6941,7 +6942,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>68</v>
@@ -6961,7 +6962,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f>EDATE(A135,1)</f>
         <v>38078</v>
@@ -6988,7 +6989,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>71</v>
@@ -7008,7 +7009,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>38108</v>
@@ -7033,7 +7034,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -7060,7 +7061,7 @@
         <v>38149</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>124</v>
@@ -7082,7 +7083,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="48"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>38169</v>
@@ -7109,7 +7110,7 @@
         <v>38176</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>45</v>
@@ -7131,7 +7132,7 @@
         <v>38182</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>98</v>
@@ -7151,7 +7152,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="48"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A144,1)</f>
         <v>38200</v>
@@ -7178,7 +7179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>45</v>
@@ -7200,7 +7201,7 @@
         <v>38215</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>126</v>
@@ -7220,7 +7221,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A147,1)</f>
         <v>38231</v>
@@ -7245,7 +7246,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -7272,7 +7273,7 @@
         <v>38273</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>45</v>
@@ -7294,7 +7295,7 @@
         <v>38285</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>128</v>
@@ -7314,7 +7315,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>38292</v>
@@ -7339,7 +7340,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -7366,7 +7367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>142</v>
@@ -7386,7 +7387,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="47" t="s">
         <v>130</v>
       </c>
@@ -7404,7 +7405,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>38353</v>
@@ -7431,7 +7432,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -7458,7 +7459,7 @@
         <v>38401</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>68</v>
@@ -7478,7 +7479,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>99</v>
@@ -7498,7 +7499,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="48"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f>EDATE(A159,1)</f>
         <v>38412</v>
@@ -7523,7 +7524,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -7550,7 +7551,7 @@
         <v>38447</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>143</v>
@@ -7570,7 +7571,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="48"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A163,1)</f>
         <v>38473</v>
@@ -7595,7 +7596,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -7620,7 +7621,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>51</v>
@@ -7642,7 +7643,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>38534</v>
@@ -7667,7 +7668,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -7692,7 +7693,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -7717,7 +7718,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -7738,7 +7739,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>38657</v>
@@ -7765,7 +7766,7 @@
         <v>38666</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>45</v>
@@ -7787,7 +7788,7 @@
         <v>38674</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>127</v>
@@ -7807,7 +7808,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="48"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A172,1)</f>
         <v>38687</v>
@@ -7834,7 +7835,7 @@
         <v>38691</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>138</v>
@@ -7854,7 +7855,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>134</v>
@@ -7874,7 +7875,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="47" t="s">
         <v>140</v>
       </c>
@@ -7892,7 +7893,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="48"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A175,1)</f>
         <v>38718</v>
@@ -7913,7 +7914,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="1"/>
         <v>38749</v>
@@ -7938,7 +7939,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>68</v>
@@ -7958,7 +7959,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>149</v>
@@ -7978,7 +7979,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A180,1)</f>
         <v>38777</v>
@@ -8005,7 +8006,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>45</v>
@@ -8027,7 +8028,7 @@
         <v>38799</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>151</v>
@@ -8047,7 +8048,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="48"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>38808</v>
@@ -8072,7 +8073,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="1"/>
         <v>38838</v>
@@ -8097,7 +8098,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="1"/>
         <v>38869</v>
@@ -8118,7 +8119,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="1"/>
         <v>38899</v>
@@ -8143,7 +8144,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="1"/>
         <v>38930</v>
@@ -8170,7 +8171,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>160</v>
@@ -8190,7 +8191,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>38961</v>
@@ -8211,7 +8212,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="1"/>
         <v>38991</v>
@@ -8236,7 +8237,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="1"/>
         <v>39022</v>
@@ -8261,7 +8262,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="1"/>
         <v>39052</v>
@@ -8286,7 +8287,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>113</v>
@@ -8306,7 +8307,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="47" t="s">
         <v>161</v>
       </c>
@@ -8324,7 +8325,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A195,1)</f>
         <v>39083</v>
@@ -8349,7 +8350,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="1"/>
         <v>39114</v>
@@ -8374,7 +8375,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="1"/>
         <v>39142</v>
@@ -8399,7 +8400,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f t="shared" si="1"/>
         <v>39173</v>
@@ -8420,7 +8421,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f t="shared" si="1"/>
         <v>39203</v>
@@ -8445,7 +8446,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f t="shared" si="1"/>
         <v>39234</v>
@@ -8470,7 +8471,7 @@
       <c r="J203" s="12"/>
       <c r="K203" s="15"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f t="shared" si="1"/>
         <v>39264</v>
@@ -8495,7 +8496,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" si="1"/>
         <v>39295</v>
@@ -8520,7 +8521,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="1"/>
         <v>39326</v>
@@ -8545,7 +8546,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>136</v>
@@ -8565,7 +8566,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>39356</v>
@@ -8586,7 +8587,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="1"/>
         <v>39387</v>
@@ -8613,7 +8614,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>135</v>
@@ -8633,7 +8634,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f>EDATE(A209,1)</f>
         <v>39417</v>
@@ -8658,7 +8659,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="47" t="s">
         <v>171</v>
       </c>
@@ -8676,7 +8677,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>39448</v>
@@ -8701,7 +8702,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>173</v>
@@ -8721,7 +8722,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>39479</v>
@@ -8748,7 +8749,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>68</v>
@@ -8768,7 +8769,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>176</v>
@@ -8788,7 +8789,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>39508</v>
@@ -8813,7 +8814,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" ref="A219:A266" si="2">EDATE(A218,1)</f>
         <v>39539</v>
@@ -8838,7 +8839,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" si="2"/>
         <v>39569</v>
@@ -8863,7 +8864,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="2"/>
         <v>39600</v>
@@ -8888,7 +8889,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="2"/>
         <v>39630</v>
@@ -8915,7 +8916,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>180</v>
@@ -8935,7 +8936,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="51"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f>EDATE(A222,1)</f>
         <v>39661</v>
@@ -8962,7 +8963,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>84</v>
@@ -8984,7 +8985,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>182</v>
@@ -9004,7 +9005,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f>EDATE(A224,1)</f>
         <v>39692</v>
@@ -9031,7 +9032,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>83</v>
@@ -9051,7 +9052,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>39722</v>
@@ -9076,7 +9077,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="2"/>
         <v>39753</v>
@@ -9101,7 +9102,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="2"/>
         <v>39783</v>
@@ -9126,7 +9127,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>188</v>
@@ -9146,7 +9147,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="47" t="s">
         <v>183</v>
       </c>
@@ -9164,7 +9165,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A231,1)</f>
         <v>39814</v>
@@ -9189,7 +9190,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" si="2"/>
         <v>39845</v>
@@ -9214,7 +9215,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="2"/>
         <v>39873</v>
@@ -9241,7 +9242,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>94</v>
@@ -9261,7 +9262,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>45</v>
@@ -9283,7 +9284,7 @@
         <v>39903</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>205</v>
@@ -9303,7 +9304,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="48"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39904</v>
@@ -9328,7 +9329,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="2"/>
         <v>39934</v>
@@ -9353,7 +9354,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>61</v>
@@ -9373,7 +9374,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A241,1)</f>
         <v>39965</v>
@@ -9400,7 +9401,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>204</v>
@@ -9420,7 +9421,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="48"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39995</v>
@@ -9445,7 +9446,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" si="2"/>
         <v>40026</v>
@@ -9472,7 +9473,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>198</v>
@@ -9492,7 +9493,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>40057</v>
@@ -9517,7 +9518,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>40087</v>
@@ -9542,7 +9543,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="2"/>
         <v>40118</v>
@@ -9567,7 +9568,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="2"/>
         <v>40148</v>
@@ -9594,7 +9595,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>203</v>
@@ -9614,7 +9615,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="47" t="s">
         <v>206</v>
       </c>
@@ -9632,7 +9633,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A251,1)</f>
         <v>40179</v>
@@ -9657,7 +9658,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>45</v>
@@ -9681,7 +9682,7 @@
         <v>40183</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>40210</v>
@@ -9708,7 +9709,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>210</v>
@@ -9728,7 +9729,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>51</v>
@@ -9750,7 +9751,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f>EDATE(A256,1)</f>
         <v>40238</v>
@@ -9775,7 +9776,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>213</v>
@@ -9795,7 +9796,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>40269</v>
@@ -9820,7 +9821,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f t="shared" si="2"/>
         <v>40299</v>
@@ -9845,7 +9846,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>61</v>
@@ -9867,7 +9868,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A262,1)</f>
         <v>40330</v>
@@ -9892,7 +9893,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" si="2"/>
         <v>40360</v>
@@ -9917,7 +9918,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="2"/>
         <v>40391</v>
@@ -9942,7 +9943,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>45</v>
@@ -9964,7 +9965,7 @@
         <v>40393</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40422</v>
@@ -9991,7 +9992,7 @@
         <v>40441</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>220</v>
@@ -10011,7 +10012,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="48"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>45</v>
@@ -10033,7 +10034,7 @@
         <v>40437</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A268,1)</f>
         <v>40452</v>
@@ -10054,7 +10055,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A271,1)</f>
         <v>40483</v>
@@ -10079,7 +10080,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>45</v>
@@ -10101,7 +10102,7 @@
         <v>40497</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>72</v>
@@ -10121,7 +10122,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A272,1)</f>
         <v>40513</v>
@@ -10146,7 +10147,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="47" t="s">
         <v>223</v>
       </c>
@@ -10164,7 +10165,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>40544</v>
@@ -10189,7 +10190,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>45</v>
@@ -10211,7 +10212,7 @@
         <v>40571</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>40575</v>
@@ -10238,7 +10239,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>68</v>
@@ -10258,7 +10259,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>226</v>
@@ -10278,7 +10279,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>40603</v>
@@ -10303,7 +10304,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>51</v>
@@ -10325,7 +10326,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>40634</v>
@@ -10350,7 +10351,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>45</v>
@@ -10372,7 +10373,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>40664</v>
@@ -10397,7 +10398,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>45</v>
@@ -10419,7 +10420,7 @@
         <v>40676</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>40695</v>
@@ -10444,7 +10445,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>51</v>
@@ -10466,7 +10467,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f>EDATE(A288,1)</f>
         <v>40725</v>
@@ -10491,7 +10492,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>45</v>
@@ -10513,7 +10514,7 @@
         <v>40729</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f>EDATE(A290,1)</f>
         <v>40756</v>
@@ -10538,7 +10539,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>45</v>
@@ -10560,7 +10561,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f>EDATE(A292,1)</f>
         <v>40787</v>
@@ -10585,7 +10586,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>51</v>
@@ -10605,7 +10606,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f>EDATE(A294,1)</f>
         <v>40817</v>
@@ -10630,7 +10631,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>61</v>
@@ -10652,7 +10653,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>40848</v>
@@ -10677,7 +10678,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>45</v>
@@ -10699,7 +10700,7 @@
         <v>40868</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>239</v>
@@ -10719,7 +10720,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f>EDATE(A298,1)</f>
         <v>40878</v>
@@ -10744,7 +10745,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -10766,7 +10767,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="47" t="s">
         <v>241</v>
       </c>
@@ -10784,7 +10785,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="48"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f>EDATE(A301,1)</f>
         <v>40909</v>
@@ -10809,7 +10810,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>251</v>
@@ -10829,7 +10830,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>40940</v>
@@ -10856,7 +10857,7 @@
         <v>40596</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>68</v>
@@ -10876,7 +10877,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>252</v>
@@ -10896,7 +10897,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="48"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>61</v>
@@ -10916,7 +10917,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="48"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A306,1)</f>
         <v>40969</v>
@@ -10941,7 +10942,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f t="shared" ref="A311:A331" si="3">EDATE(A310,1)</f>
         <v>41000</v>
@@ -10966,7 +10967,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f t="shared" si="3"/>
         <v>41030</v>
@@ -10991,7 +10992,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f t="shared" si="3"/>
         <v>41061</v>
@@ -11016,7 +11017,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -11041,7 +11042,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f t="shared" si="3"/>
         <v>41122</v>
@@ -11062,7 +11063,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A315,1)</f>
         <v>41153</v>
@@ -11087,7 +11088,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>84</v>
@@ -11107,7 +11108,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>41183</v>
@@ -11132,7 +11133,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="3"/>
         <v>41214</v>
@@ -11157,7 +11158,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="3"/>
         <v>41244</v>
@@ -11182,7 +11183,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>258</v>
@@ -11204,7 +11205,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>260</v>
@@ -11224,7 +11225,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="47" t="s">
         <v>242</v>
       </c>
@@ -11242,7 +11243,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A320,1)</f>
         <v>41275</v>
@@ -11267,7 +11268,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" si="3"/>
         <v>41306</v>
@@ -11294,7 +11295,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>156</v>
@@ -11316,7 +11317,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>68</v>
@@ -11336,7 +11337,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>265</v>
@@ -11356,7 +11357,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>41334</v>
@@ -11381,7 +11382,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="3"/>
         <v>41365</v>
@@ -11402,7 +11403,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f t="shared" si="3"/>
         <v>41395</v>
@@ -11427,7 +11428,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A331,1)</f>
         <v>41426</v>
@@ -11452,7 +11453,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" ref="A333:A363" si="4">EDATE(A332,1)</f>
         <v>41456</v>
@@ -11477,7 +11478,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="4"/>
         <v>41487</v>
@@ -11502,7 +11503,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="4"/>
         <v>41518</v>
@@ -11527,7 +11528,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="4"/>
         <v>41548</v>
@@ -11552,7 +11553,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f t="shared" si="4"/>
         <v>41579</v>
@@ -11577,7 +11578,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f t="shared" si="4"/>
         <v>41609</v>
@@ -11602,7 +11603,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>113</v>
@@ -11622,7 +11623,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="47" t="s">
         <v>243</v>
       </c>
@@ -11640,7 +11641,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A338,1)</f>
         <v>41640</v>
@@ -11665,7 +11666,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>84</v>
@@ -11685,7 +11686,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f>EDATE(A341,1)</f>
         <v>41671</v>
@@ -11710,7 +11711,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f t="shared" si="4"/>
         <v>41699</v>
@@ -11735,7 +11736,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f t="shared" si="4"/>
         <v>41730</v>
@@ -11760,7 +11761,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f t="shared" si="4"/>
         <v>41760</v>
@@ -11785,7 +11786,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="4"/>
         <v>41791</v>
@@ -11810,7 +11811,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f t="shared" si="4"/>
         <v>41821</v>
@@ -11835,7 +11836,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="4"/>
         <v>41852</v>
@@ -11860,7 +11861,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>278</v>
@@ -11880,7 +11881,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A349,1)</f>
         <v>41883</v>
@@ -11907,7 +11908,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>95</v>
@@ -11927,7 +11928,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>84</v>
@@ -11947,7 +11948,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>41913</v>
@@ -11972,7 +11973,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" si="4"/>
         <v>41944</v>
@@ -11999,7 +12000,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="4"/>
         <v>41974</v>
@@ -12020,7 +12021,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="47" t="s">
         <v>244</v>
       </c>
@@ -12038,7 +12039,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>42005</v>
@@ -12063,7 +12064,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>90</v>
@@ -12083,7 +12084,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>42036</v>
@@ -12110,7 +12111,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>283</v>
@@ -12130,7 +12131,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f>EDATE(A360,1)</f>
         <v>42064</v>
@@ -12155,7 +12156,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f t="shared" si="4"/>
         <v>42095</v>
@@ -12180,7 +12181,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f>EDATE(A363,1)</f>
         <v>42125</v>
@@ -12205,7 +12206,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f t="shared" ref="A365:A419" si="5">EDATE(A364,1)</f>
         <v>42156</v>
@@ -12230,7 +12231,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f t="shared" si="5"/>
         <v>42186</v>
@@ -12255,7 +12256,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f t="shared" si="5"/>
         <v>42217</v>
@@ -12280,7 +12281,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f t="shared" si="5"/>
         <v>42248</v>
@@ -12305,7 +12306,7 @@
         <v>42272</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>288</v>
@@ -12325,7 +12326,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="48"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>42278</v>
@@ -12352,7 +12353,7 @@
         <v>42277</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>45</v>
@@ -12374,7 +12375,7 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>289</v>
@@ -12394,7 +12395,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="48"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f>EDATE(A370,1)</f>
         <v>42309</v>
@@ -12419,7 +12420,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="5"/>
         <v>42339</v>
@@ -12446,7 +12447,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>292</v>
@@ -12466,7 +12467,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="47" t="s">
         <v>245</v>
       </c>
@@ -12484,7 +12485,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>42370</v>
@@ -12509,7 +12510,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>45</v>
@@ -12531,7 +12532,7 @@
         <v>42398</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>42401</v>
@@ -12556,7 +12557,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>49</v>
@@ -12578,7 +12579,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>42430</v>
@@ -12603,7 +12604,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f t="shared" si="5"/>
         <v>42461</v>
@@ -12628,7 +12629,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" si="5"/>
         <v>42491</v>
@@ -12653,7 +12654,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" si="5"/>
         <v>42522</v>
@@ -12678,7 +12679,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="5"/>
         <v>42552</v>
@@ -12703,7 +12704,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" si="5"/>
         <v>42583</v>
@@ -12728,7 +12729,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="5"/>
         <v>42614</v>
@@ -12753,7 +12754,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="5"/>
         <v>42644</v>
@@ -12778,7 +12779,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f t="shared" si="5"/>
         <v>42675</v>
@@ -12799,7 +12800,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="5"/>
         <v>42705</v>
@@ -12824,7 +12825,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>169</v>
@@ -12844,7 +12845,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="47" t="s">
         <v>246</v>
       </c>
@@ -12862,7 +12863,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>42736</v>
@@ -12887,7 +12888,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f t="shared" si="5"/>
         <v>42767</v>
@@ -12912,7 +12913,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>84</v>
@@ -12934,7 +12935,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f>EDATE(A394,1)</f>
         <v>42795</v>
@@ -12959,7 +12960,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f t="shared" si="5"/>
         <v>42826</v>
@@ -12980,7 +12981,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="5"/>
         <v>42856</v>
@@ -13005,7 +13006,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f t="shared" si="5"/>
         <v>42887</v>
@@ -13030,7 +13031,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>51</v>
@@ -13052,7 +13053,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f>EDATE(A399,1)</f>
         <v>42917</v>
@@ -13077,7 +13078,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f t="shared" si="5"/>
         <v>42948</v>
@@ -13102,7 +13103,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="5"/>
         <v>42979</v>
@@ -13129,7 +13130,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>83</v>
@@ -13149,7 +13150,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>43009</v>
@@ -13176,7 +13177,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>256</v>
@@ -13196,7 +13197,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>43040</v>
@@ -13217,7 +13218,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="5"/>
         <v>43070</v>
@@ -13244,7 +13245,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>156</v>
@@ -13264,7 +13265,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="47" t="s">
         <v>247</v>
       </c>
@@ -13279,7 +13280,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A408,1)</f>
         <v>43101</v>
@@ -13300,7 +13301,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f t="shared" si="5"/>
         <v>43132</v>
@@ -13321,7 +13322,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f t="shared" si="5"/>
         <v>43160</v>
@@ -13342,7 +13343,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f t="shared" si="5"/>
         <v>43191</v>
@@ -13363,7 +13364,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f t="shared" si="5"/>
         <v>43221</v>
@@ -13384,7 +13385,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f t="shared" si="5"/>
         <v>43252</v>
@@ -13405,7 +13406,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="5"/>
         <v>43282</v>
@@ -13426,7 +13427,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f t="shared" si="5"/>
         <v>43313</v>
@@ -13453,7 +13454,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f t="shared" si="5"/>
         <v>43344</v>
@@ -13474,7 +13475,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f>EDATE(A419,1)</f>
         <v>43374</v>
@@ -13495,7 +13496,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" ref="A421:A480" si="6">EDATE(A420,1)</f>
         <v>43405</v>
@@ -13516,7 +13517,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="6"/>
         <v>43435</v>
@@ -13541,7 +13542,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>77</v>
@@ -13563,7 +13564,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="47" t="s">
         <v>248</v>
       </c>
@@ -13581,7 +13582,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A422,1)</f>
         <v>43466</v>
@@ -13608,7 +13609,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="6"/>
         <v>43497</v>
@@ -13635,7 +13636,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>68</v>
@@ -13655,7 +13656,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f>EDATE(A426,1)</f>
         <v>43525</v>
@@ -13676,7 +13677,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f t="shared" si="6"/>
         <v>43556</v>
@@ -13697,7 +13698,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f t="shared" si="6"/>
         <v>43586</v>
@@ -13718,7 +13719,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f t="shared" si="6"/>
         <v>43617</v>
@@ -13739,7 +13740,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f t="shared" si="6"/>
         <v>43647</v>
@@ -13760,7 +13761,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" si="6"/>
         <v>43678</v>
@@ -13787,7 +13788,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f t="shared" si="6"/>
         <v>43709</v>
@@ -13808,7 +13809,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" si="6"/>
         <v>43739</v>
@@ -13829,7 +13830,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="6"/>
         <v>43770</v>
@@ -13856,7 +13857,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f t="shared" si="6"/>
         <v>43800</v>
@@ -13877,7 +13878,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="47" t="s">
         <v>249</v>
       </c>
@@ -13895,7 +13896,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>43831</v>
@@ -13916,7 +13917,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f t="shared" si="6"/>
         <v>43862</v>
@@ -13941,7 +13942,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>317</v>
@@ -13961,7 +13962,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>43891</v>
@@ -13982,7 +13983,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f t="shared" si="6"/>
         <v>43922</v>
@@ -14003,7 +14004,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="6"/>
         <v>43952</v>
@@ -14024,7 +14025,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f t="shared" si="6"/>
         <v>43983</v>
@@ -14045,7 +14046,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="6"/>
         <v>44013</v>
@@ -14066,7 +14067,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="6"/>
         <v>44044</v>
@@ -14087,7 +14088,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f t="shared" si="6"/>
         <v>44075</v>
@@ -14108,7 +14109,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f t="shared" si="6"/>
         <v>44105</v>
@@ -14129,7 +14130,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f t="shared" si="6"/>
         <v>44136</v>
@@ -14154,7 +14155,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>66</v>
@@ -14176,7 +14177,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f>EDATE(A450,1)</f>
         <v>44166</v>
@@ -14201,7 +14202,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="47" t="s">
         <v>322</v>
       </c>
@@ -14219,7 +14220,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A452,1)</f>
         <v>44197</v>
@@ -14240,7 +14241,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <f t="shared" si="6"/>
         <v>44228</v>
@@ -14261,7 +14262,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <f t="shared" si="6"/>
         <v>44256</v>
@@ -14282,7 +14283,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f t="shared" si="6"/>
         <v>44287</v>
@@ -14303,7 +14304,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" si="6"/>
         <v>44317</v>
@@ -14324,7 +14325,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="6"/>
         <v>44348</v>
@@ -14345,7 +14346,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="6"/>
         <v>44378</v>
@@ -14366,7 +14367,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <f t="shared" si="6"/>
         <v>44409</v>
@@ -14387,7 +14388,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f t="shared" si="6"/>
         <v>44440</v>
@@ -14408,7 +14409,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f t="shared" si="6"/>
         <v>44470</v>
@@ -14429,7 +14430,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f t="shared" si="6"/>
         <v>44501</v>
@@ -14450,7 +14451,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f t="shared" si="6"/>
         <v>44531</v>
@@ -14475,7 +14476,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="47" t="s">
         <v>323</v>
       </c>
@@ -14493,7 +14494,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f>EDATE(A465,1)</f>
         <v>44562</v>
@@ -14514,7 +14515,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f t="shared" si="6"/>
         <v>44593</v>
@@ -14535,7 +14536,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="6"/>
         <v>44621</v>
@@ -14556,7 +14557,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="6"/>
         <v>44652</v>
@@ -14577,7 +14578,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f t="shared" si="6"/>
         <v>44682</v>
@@ -14598,7 +14599,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f t="shared" si="6"/>
         <v>44713</v>
@@ -14619,7 +14620,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f t="shared" si="6"/>
         <v>44743</v>
@@ -14640,7 +14641,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f t="shared" si="6"/>
         <v>44774</v>
@@ -14665,7 +14666,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <f t="shared" si="6"/>
         <v>44805</v>
@@ -14686,7 +14687,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f t="shared" si="6"/>
         <v>44835</v>
@@ -14713,7 +14714,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>68</v>
@@ -14733,7 +14734,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>59</v>
@@ -14755,7 +14756,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <f>EDATE(A476,1)</f>
         <v>44866</v>
@@ -14776,7 +14777,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f t="shared" si="6"/>
         <v>44896</v>
@@ -14803,7 +14804,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="47" t="s">
         <v>325</v>
       </c>
@@ -14821,7 +14822,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f>EDATE(A480,1)</f>
         <v>44927</v>
@@ -14843,10 +14844,10 @@
       <c r="I482" s="9"/>
       <c r="J482" s="11"/>
       <c r="K482" s="48">
-        <v>44952</v>
-      </c>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>44958</v>
       </c>
@@ -14872,7 +14873,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>46</v>
@@ -14894,7 +14895,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>45</v>
@@ -14916,7 +14917,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>44986</v>
       </c>
@@ -14940,7 +14941,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>45017</v>
       </c>
@@ -14966,7 +14967,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>45047</v>
       </c>
@@ -14992,7 +14993,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>45</v>
@@ -15014,20 +15015,22 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>45078</v>
       </c>
       <c r="B490" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C490" s="13"/>
+      <c r="C490" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D490" s="39"/>
       <c r="E490" s="9"/>
       <c r="F490" s="20"/>
-      <c r="G490" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G490" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H490" s="39">
         <v>2</v>
@@ -15038,7 +15041,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>45</v>
@@ -15060,7 +15063,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>45108</v>
       </c>
@@ -15078,7 +15081,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>45139</v>
       </c>
@@ -15096,7 +15099,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>45170</v>
       </c>
@@ -15114,7 +15117,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>45200</v>
       </c>
@@ -15132,7 +15135,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>45231</v>
       </c>
@@ -15150,7 +15153,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>45261</v>
       </c>
@@ -15168,7 +15171,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>45292</v>
       </c>
@@ -15186,7 +15189,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>45323</v>
       </c>
@@ -15204,7 +15207,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>45352</v>
       </c>
@@ -15222,7 +15225,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>45383</v>
       </c>
@@ -15240,7 +15243,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>45413</v>
       </c>
@@ -15258,7 +15261,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>45444</v>
       </c>
@@ -15276,7 +15279,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>45474</v>
       </c>
@@ -15294,7 +15297,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>45505</v>
       </c>
@@ -15312,7 +15315,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>45536</v>
       </c>
@@ -15330,7 +15333,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>45566</v>
       </c>
@@ -15348,7 +15351,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>45597</v>
       </c>
@@ -15366,7 +15369,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>45627</v>
       </c>
@@ -15384,7 +15387,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>45658</v>
       </c>
@@ -15402,7 +15405,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>45689</v>
       </c>
@@ -15420,7 +15423,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>45717</v>
       </c>
@@ -15438,7 +15441,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>45748</v>
       </c>
@@ -15456,7 +15459,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>45778</v>
       </c>
@@ -15474,7 +15477,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>45809</v>
       </c>
@@ -15492,7 +15495,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>45839</v>
       </c>
@@ -15510,7 +15513,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>45870</v>
       </c>
@@ -15528,7 +15531,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>45901</v>
       </c>
@@ -15546,7 +15549,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>45931</v>
       </c>
@@ -15564,7 +15567,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>45962</v>
       </c>
@@ -15582,7 +15585,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>45992</v>
       </c>
@@ -15600,7 +15603,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>46023</v>
       </c>
@@ -15618,7 +15621,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>46054</v>
       </c>
@@ -15636,7 +15639,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>46082</v>
       </c>
@@ -15654,7 +15657,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>46113</v>
       </c>
@@ -15672,7 +15675,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>46143</v>
       </c>
@@ -15690,7 +15693,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>46174</v>
       </c>
@@ -15708,7 +15711,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>46204</v>
       </c>
@@ -15726,7 +15729,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>46235</v>
       </c>
@@ -15744,7 +15747,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>46266</v>
       </c>
@@ -15762,7 +15765,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>46296</v>
       </c>
@@ -15780,7 +15783,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>46327</v>
       </c>
@@ -15798,7 +15801,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>46357</v>
       </c>
@@ -15816,7 +15819,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>46388</v>
       </c>
@@ -15834,7 +15837,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>46419</v>
       </c>
@@ -15852,7 +15855,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>46447</v>
       </c>
@@ -15870,7 +15873,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>46478</v>
       </c>
@@ -15888,7 +15891,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>46508</v>
       </c>
@@ -15906,7 +15909,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>46539</v>
       </c>
@@ -15924,7 +15927,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>46569</v>
       </c>
@@ -15942,7 +15945,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>46600</v>
       </c>
@@ -15960,7 +15963,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>46631</v>
       </c>
@@ -15978,7 +15981,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>46661</v>
       </c>
@@ -15996,7 +15999,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>46692</v>
       </c>
@@ -16014,7 +16017,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>46722</v>
       </c>
@@ -16032,7 +16035,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>46753</v>
       </c>
@@ -16050,7 +16053,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>46784</v>
       </c>
@@ -16068,7 +16071,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>46813</v>
       </c>
@@ -16086,7 +16089,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>46844</v>
       </c>
@@ -16104,7 +16107,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>46874</v>
       </c>
@@ -16122,7 +16125,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>46905</v>
       </c>
@@ -16140,7 +16143,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>46935</v>
       </c>
@@ -16158,7 +16161,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>46966</v>
       </c>
@@ -16176,7 +16179,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>46997</v>
       </c>
@@ -16194,7 +16197,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>47027</v>
       </c>
@@ -16212,7 +16215,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>47058</v>
       </c>
@@ -16230,7 +16233,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>47088</v>
       </c>
@@ -16248,7 +16251,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>47119</v>
       </c>
@@ -16266,7 +16269,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>47150</v>
       </c>
@@ -16284,7 +16287,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>47178</v>
       </c>
@@ -16302,7 +16305,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>47209</v>
       </c>
@@ -16320,7 +16323,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>47239</v>
       </c>
@@ -16338,7 +16341,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>47270</v>
       </c>
@@ -16356,7 +16359,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>47300</v>
       </c>
@@ -16374,7 +16377,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>47331</v>
       </c>
@@ -16392,7 +16395,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>47362</v>
       </c>
@@ -16410,7 +16413,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>47392</v>
       </c>
@@ -16428,7 +16431,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>47423</v>
       </c>
@@ -16446,7 +16449,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>47453</v>
       </c>
@@ -16464,7 +16467,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16480,7 +16483,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16496,7 +16499,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16512,7 +16515,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16528,7 +16531,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16544,7 +16547,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16560,7 +16563,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16576,7 +16579,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16592,7 +16595,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16608,7 +16611,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16624,7 +16627,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16640,7 +16643,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16656,7 +16659,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16672,7 +16675,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16688,7 +16691,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16704,7 +16707,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16720,7 +16723,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16736,7 +16739,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16752,7 +16755,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16768,7 +16771,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16784,7 +16787,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16800,7 +16803,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16816,7 +16819,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16832,7 +16835,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16848,7 +16851,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16864,7 +16867,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16880,7 +16883,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -16896,7 +16899,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="52"/>
       <c r="B597" s="15"/>
       <c r="C597" s="41"/>
@@ -16927,10 +16930,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16953,29 +16956,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16988,7 +16991,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17017,7 +17020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -17043,17 +17046,17 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17074,7 +17077,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17101,7 +17104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17127,7 +17130,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17153,7 +17156,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17179,7 +17182,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17205,7 +17208,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17231,7 +17234,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17257,7 +17260,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17283,7 +17286,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17303,7 +17306,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17323,7 +17326,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17343,7 +17346,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17364,7 +17367,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17385,7 +17388,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17406,7 +17409,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17427,7 +17430,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17448,7 +17451,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17469,7 +17472,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17490,7 +17493,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17511,7 +17514,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17532,7 +17535,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17553,7 +17556,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17574,7 +17577,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17595,7 +17598,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17616,7 +17619,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17637,7 +17640,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17658,7 +17661,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17679,7 +17682,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17700,7 +17703,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17721,7 +17724,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17742,7 +17745,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17763,7 +17766,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17772,7 +17775,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17781,7 +17784,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17790,7 +17793,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17799,7 +17802,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17808,7 +17811,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17817,7 +17820,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17826,7 +17829,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17835,7 +17838,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17844,7 +17847,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17853,7 +17856,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17862,7 +17865,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17871,7 +17874,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17880,7 +17883,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17889,7 +17892,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17898,7 +17901,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17907,7 +17910,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17916,7 +17919,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17925,7 +17928,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17934,7 +17937,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17943,7 +17946,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17952,7 +17955,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17961,7 +17964,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17970,7 +17973,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17979,7 +17982,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17988,7 +17991,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17997,7 +18000,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18006,7 +18009,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18015,7 +18018,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18024,7 +18027,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/PERENA, RUBILINDA.xlsx
+++ b/REGULAR/PERENA, RUBILINDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4193E55-8D31-46C8-B32B-F4BC3D84CB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7EBF36-4186-4926-BFC2-2AA5493FB684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="334">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1031,6 +1031,12 @@
   </si>
   <si>
     <t>6/13,14/2023</t>
+  </si>
+  <si>
+    <t>7/4,5,6/2023</t>
+  </si>
+  <si>
+    <t>6/27,29/2023</t>
   </si>
 </sst>
 </file>
@@ -3448,7 +3454,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K598" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="20"/>
@@ -3826,12 +3832,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K597"/>
+  <dimension ref="A2:K598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="3252" topLeftCell="A477"/>
+      <pane ySplit="3252" topLeftCell="A477" activePane="bottomLeft"/>
       <selection activeCell="Q8" sqref="Q8"/>
-      <selection pane="bottomLeft" activeCell="G482" sqref="G482:H491"/>
+      <selection pane="bottomLeft" activeCell="B493" sqref="B493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3992,7 +3998,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>76.269000000000062</v>
+        <v>73.269000000000062</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4002,7 +4008,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>206.70799999999997</v>
+        <v>204.70799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15064,10 +15070,10 @@
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A492" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B492" s="20"/>
+      <c r="A492" s="40"/>
+      <c r="B492" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C492" s="13"/>
       <c r="D492" s="39"/>
       <c r="E492" s="9"/>
@@ -15076,18 +15082,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H492" s="39"/>
+      <c r="H492" s="39">
+        <v>2</v>
+      </c>
       <c r="I492" s="9"/>
       <c r="J492" s="11"/>
-      <c r="K492" s="20"/>
+      <c r="K492" s="48" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B493" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B493" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C493" s="13"/>
-      <c r="D493" s="39"/>
+      <c r="D493" s="39">
+        <v>3</v>
+      </c>
       <c r="E493" s="9"/>
       <c r="F493" s="20"/>
       <c r="G493" s="13" t="str">
@@ -15097,11 +15111,13 @@
       <c r="H493" s="39"/>
       <c r="I493" s="9"/>
       <c r="J493" s="11"/>
-      <c r="K493" s="20"/>
+      <c r="K493" s="20" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -15119,7 +15135,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -15137,7 +15153,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -15155,7 +15171,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -15173,7 +15189,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -15191,7 +15207,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -15209,7 +15225,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -15227,7 +15243,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -15245,7 +15261,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -15263,7 +15279,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -15281,7 +15297,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -15299,7 +15315,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -15317,7 +15333,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -15335,7 +15351,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -15353,7 +15369,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -15371,7 +15387,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -15389,7 +15405,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15407,7 +15423,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15425,7 +15441,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15443,7 +15459,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15461,7 +15477,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15479,7 +15495,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15497,7 +15513,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15515,7 +15531,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15533,7 +15549,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15551,7 +15567,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15569,7 +15585,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15587,7 +15603,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15605,7 +15621,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15623,7 +15639,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15641,7 +15657,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15659,7 +15675,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15677,7 +15693,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15695,7 +15711,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15713,7 +15729,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15731,7 +15747,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15749,7 +15765,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15767,7 +15783,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15785,7 +15801,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15803,7 +15819,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15821,7 +15837,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15839,7 +15855,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15857,7 +15873,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15875,7 +15891,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15893,7 +15909,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15911,7 +15927,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15929,7 +15945,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15947,7 +15963,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15965,7 +15981,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15983,7 +15999,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -16001,7 +16017,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -16019,7 +16035,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -16037,7 +16053,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16055,7 +16071,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16073,7 +16089,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16091,7 +16107,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16109,7 +16125,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16127,7 +16143,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16145,7 +16161,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16163,7 +16179,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16181,7 +16197,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16199,7 +16215,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16217,7 +16233,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16235,7 +16251,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16253,7 +16269,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16271,7 +16287,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16289,7 +16305,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16307,7 +16323,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16325,7 +16341,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16343,7 +16359,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16361,7 +16377,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16379,7 +16395,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16397,7 +16413,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16415,7 +16431,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16433,7 +16449,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16451,7 +16467,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16468,7 +16484,9 @@
       <c r="K569" s="20"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A570" s="40"/>
+      <c r="A570" s="40">
+        <v>47453</v>
+      </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
       <c r="D570" s="39"/>
@@ -16900,20 +16918,36 @@
       <c r="K596" s="20"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A597" s="52"/>
-      <c r="B597" s="15"/>
-      <c r="C597" s="41"/>
-      <c r="D597" s="42"/>
+      <c r="A597" s="40"/>
+      <c r="B597" s="20"/>
+      <c r="C597" s="13"/>
+      <c r="D597" s="39"/>
       <c r="E597" s="9"/>
-      <c r="F597" s="15"/>
-      <c r="G597" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H597" s="42"/>
+      <c r="F597" s="20"/>
+      <c r="G597" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H597" s="39"/>
       <c r="I597" s="9"/>
-      <c r="J597" s="12"/>
-      <c r="K597" s="15"/>
+      <c r="J597" s="11"/>
+      <c r="K597" s="20"/>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A598" s="52"/>
+      <c r="B598" s="15"/>
+      <c r="C598" s="41"/>
+      <c r="D598" s="42"/>
+      <c r="E598" s="9"/>
+      <c r="F598" s="15"/>
+      <c r="G598" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H598" s="42"/>
+      <c r="I598" s="9"/>
+      <c r="J598" s="12"/>
+      <c r="K598" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
